--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_16_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_16_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3937023.532603213</v>
+        <v>-3937688.313684631</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362195.2019480311</v>
+        <v>362195.2019480307</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058543</v>
+        <v>632041.451805855</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>20.05487793325231</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="H11" t="n">
-        <v>98.93990648501756</v>
+        <v>87.14626963200352</v>
       </c>
       <c r="I11" t="n">
-        <v>40.19908950562697</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.89230219312412</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>98.93990648501756</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>98.93990648501756</v>
+        <v>98.93990648501767</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>98.93990648501756</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>18.80556830064624</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>6.063707710285797</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="S12" t="n">
-        <v>4.962200214805844</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>14.58962378130643</v>
+        <v>14.58962378130651</v>
       </c>
       <c r="U12" t="n">
-        <v>36.87179703458434</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="V12" t="n">
-        <v>40.29306373012031</v>
+        <v>40.29306373012039</v>
       </c>
       <c r="W12" t="n">
-        <v>66.34872639172966</v>
+        <v>66.34872639172974</v>
       </c>
       <c r="X12" t="n">
-        <v>16.95705725418867</v>
+        <v>16.95705725418875</v>
       </c>
       <c r="Y12" t="n">
-        <v>98.93990648501756</v>
+        <v>23.02842894874377</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2.836158859791157</v>
+        <v>2.836158859791242</v>
       </c>
       <c r="S13" t="n">
-        <v>34.98996300440338</v>
+        <v>34.98996300440346</v>
       </c>
       <c r="T13" t="n">
-        <v>23.38309022542044</v>
+        <v>23.38309022542052</v>
       </c>
       <c r="U13" t="n">
-        <v>88.30041113171404</v>
+        <v>88.30041113171413</v>
       </c>
       <c r="V13" t="n">
-        <v>44.75315799916797</v>
+        <v>44.75315799916805</v>
       </c>
       <c r="W13" t="n">
-        <v>89.95484990405339</v>
+        <v>89.95484990405348</v>
       </c>
       <c r="X13" t="n">
-        <v>21.56359822296059</v>
+        <v>21.56359822296068</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.78541562888648</v>
+        <v>16.78541562888657</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>98.93990648501756</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>22.05838072575462</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>49.79374050860074</v>
+        <v>49.79374050860091</v>
       </c>
       <c r="V14" t="n">
-        <v>15.29414839764802</v>
+        <v>37.35252912340266</v>
       </c>
       <c r="W14" t="n">
-        <v>98.93990648501756</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>98.93990648501756</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
     </row>
     <row r="15">
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>51.87880489469023</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.063707710285797</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>69.28793658651006</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="T15" t="n">
-        <v>14.58962378130637</v>
+        <v>14.58962378130654</v>
       </c>
       <c r="U15" t="n">
-        <v>36.87179703458428</v>
+        <v>36.87179703458445</v>
       </c>
       <c r="V15" t="n">
-        <v>98.93990648501756</v>
+        <v>51.31897165521162</v>
       </c>
       <c r="W15" t="n">
-        <v>66.3487263917296</v>
+        <v>66.34872639172977</v>
       </c>
       <c r="X15" t="n">
-        <v>16.95705725418861</v>
+        <v>16.95705725418878</v>
       </c>
       <c r="Y15" t="n">
-        <v>23.02842894874362</v>
+        <v>98.93990648501767</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2.8361588597911</v>
+        <v>2.83615885979127</v>
       </c>
       <c r="S16" t="n">
-        <v>34.98996300440332</v>
+        <v>34.98996300440349</v>
       </c>
       <c r="T16" t="n">
-        <v>23.38309022542038</v>
+        <v>23.38309022542055</v>
       </c>
       <c r="U16" t="n">
-        <v>88.30041113171399</v>
+        <v>88.30041113171416</v>
       </c>
       <c r="V16" t="n">
-        <v>44.75315799916791</v>
+        <v>44.75315799916808</v>
       </c>
       <c r="W16" t="n">
-        <v>89.95484990405333</v>
+        <v>89.9548499040535</v>
       </c>
       <c r="X16" t="n">
-        <v>21.56359822296054</v>
+        <v>21.56359822296071</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.78541562888643</v>
+        <v>16.7854156288866</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>44.24036351260128</v>
+        <v>44.24036351260003</v>
       </c>
       <c r="C17" t="n">
-        <v>20.3586205159454</v>
+        <v>20.35862051594552</v>
       </c>
       <c r="D17" t="n">
-        <v>7.925282776993868</v>
+        <v>7.925282776993981</v>
       </c>
       <c r="E17" t="n">
-        <v>41.63203519640274</v>
+        <v>41.63203519640285</v>
       </c>
       <c r="F17" t="n">
-        <v>73.35237277478006</v>
+        <v>73.35237277478018</v>
       </c>
       <c r="G17" t="n">
-        <v>88.97949861282743</v>
+        <v>88.97949861282754</v>
       </c>
       <c r="H17" t="n">
-        <v>17.05370075428342</v>
+        <v>17.05370075428354</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>8.049586960533475</v>
+        <v>8.049586960533588</v>
       </c>
       <c r="X17" t="n">
-        <v>29.93583742947271</v>
+        <v>29.93583742947283</v>
       </c>
       <c r="Y17" t="n">
-        <v>52.43869055321647</v>
+        <v>52.43869055321659</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>98.93990648501756</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>98.93990648501756</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.87880489469023</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,16 +1965,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.063707710285797</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="S18" t="n">
-        <v>98.93990648501756</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>29.20375702702749</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1986,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>87.1462696320035</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>44.24036351259991</v>
+        <v>44.24036351260003</v>
       </c>
       <c r="C20" t="n">
-        <v>20.3586205159454</v>
+        <v>20.35862051594552</v>
       </c>
       <c r="D20" t="n">
-        <v>7.925282776993868</v>
+        <v>7.925282776993981</v>
       </c>
       <c r="E20" t="n">
-        <v>41.63203519640274</v>
+        <v>41.63203519640285</v>
       </c>
       <c r="F20" t="n">
-        <v>73.35237277478006</v>
+        <v>73.35237277478018</v>
       </c>
       <c r="G20" t="n">
-        <v>88.97949861282743</v>
+        <v>88.97949861282754</v>
       </c>
       <c r="H20" t="n">
-        <v>17.0537007542834</v>
+        <v>17.05370075428351</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>8.049586960533475</v>
+        <v>8.049586960533588</v>
       </c>
       <c r="X20" t="n">
-        <v>29.93583742947271</v>
+        <v>29.93583742947283</v>
       </c>
       <c r="Y20" t="n">
-        <v>52.43869055321647</v>
+        <v>52.43869055321659</v>
       </c>
     </row>
     <row r="21">
@@ -2157,31 +2157,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>98.93990648501756</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>29.20375702702749</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93990648501756</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>98.93990648501756</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>51.87880489469023</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,13 +2202,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.063707710285797</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>87.14626963200357</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44.24036351259991</v>
+        <v>44.24036351260003</v>
       </c>
       <c r="C23" t="n">
-        <v>20.3586205159454</v>
+        <v>20.35862051594552</v>
       </c>
       <c r="D23" t="n">
-        <v>7.925282776993868</v>
+        <v>7.925282776993981</v>
       </c>
       <c r="E23" t="n">
-        <v>41.63203519640274</v>
+        <v>41.63203519640285</v>
       </c>
       <c r="F23" t="n">
-        <v>73.35237277478006</v>
+        <v>73.35237277478018</v>
       </c>
       <c r="G23" t="n">
-        <v>88.97949861282746</v>
+        <v>88.97949861282757</v>
       </c>
       <c r="H23" t="n">
-        <v>17.0537007542834</v>
+        <v>17.05370075428351</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>8.049586960533475</v>
+        <v>8.049586960533588</v>
       </c>
       <c r="X23" t="n">
-        <v>29.93583742947271</v>
+        <v>29.93583742947283</v>
       </c>
       <c r="Y23" t="n">
-        <v>52.43869055321647</v>
+        <v>52.43869055321659</v>
       </c>
     </row>
     <row r="24">
@@ -2397,19 +2397,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="D24" t="n">
-        <v>29.20375702702732</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="E24" t="n">
-        <v>98.93990648501739</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="F24" t="n">
-        <v>98.93990648501739</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>98.93990648501739</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>51.87880489469023</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.063707710285797</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>87.14626963200357</v>
       </c>
     </row>
     <row r="25">
@@ -2555,7 +2555,7 @@
         <v>161.2265260322199</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3447830355653</v>
+        <v>137.3447830355654</v>
       </c>
       <c r="D26" t="n">
         <v>124.9114452966138</v>
@@ -2573,7 +2573,7 @@
         <v>134.0398632739034</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69423234529543</v>
+        <v>27.69423234529545</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.38744503279258</v>
+        <v>14.38744503279261</v>
       </c>
       <c r="T26" t="n">
-        <v>9.55352356542314</v>
+        <v>9.553523565423168</v>
       </c>
       <c r="U26" t="n">
-        <v>37.28888334826925</v>
+        <v>37.28888334826929</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0190692635385</v>
+        <v>108.0190692635386</v>
       </c>
       <c r="W26" t="n">
         <v>125.0357494801534</v>
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>105.2398289500359</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.063707710285797</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>21.5049174433389</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.084766620974889</v>
+        <v>214.9454809665883</v>
       </c>
       <c r="U27" t="n">
-        <v>24.3669398742528</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V27" t="n">
-        <v>27.78820656978877</v>
+        <v>27.7882065697888</v>
       </c>
       <c r="W27" t="n">
-        <v>53.84386923139812</v>
+        <v>53.84386923139814</v>
       </c>
       <c r="X27" t="n">
-        <v>4.45220009385713</v>
+        <v>4.452200093857158</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.52357178841214</v>
+        <v>10.52357178841217</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.48510584407184</v>
+        <v>22.48510584407187</v>
       </c>
       <c r="T28" t="n">
-        <v>10.8782330650889</v>
+        <v>10.87823306508892</v>
       </c>
       <c r="U28" t="n">
-        <v>75.7955539713825</v>
+        <v>75.79555397138253</v>
       </c>
       <c r="V28" t="n">
-        <v>32.24830083883643</v>
+        <v>32.24830083883646</v>
       </c>
       <c r="W28" t="n">
-        <v>77.44999274372185</v>
+        <v>77.44999274372188</v>
       </c>
       <c r="X28" t="n">
-        <v>9.058741062629053</v>
+        <v>9.058741062629082</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.280558468554943</v>
+        <v>4.280558468554972</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>161.2265260322199</v>
       </c>
       <c r="C29" t="n">
-        <v>137.3447830355654</v>
+        <v>137.3447830355653</v>
       </c>
       <c r="D29" t="n">
-        <v>124.9114452966139</v>
+        <v>124.9114452966138</v>
       </c>
       <c r="E29" t="n">
         <v>158.6181977160227</v>
       </c>
       <c r="F29" t="n">
-        <v>190.3385352944001</v>
+        <v>190.3385352944</v>
       </c>
       <c r="G29" t="n">
-        <v>205.9656611324475</v>
+        <v>205.9656611324474</v>
       </c>
       <c r="H29" t="n">
-        <v>134.0398632739034</v>
+        <v>134.0398632739033</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69423234529548</v>
+        <v>27.69423234529543</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.38744503279264</v>
+        <v>14.38744503279258</v>
       </c>
       <c r="T29" t="n">
-        <v>9.553523565423196</v>
+        <v>9.55352356542314</v>
       </c>
       <c r="U29" t="n">
-        <v>37.28888334826931</v>
+        <v>37.28888334826925</v>
       </c>
       <c r="V29" t="n">
-        <v>108.0190692635386</v>
+        <v>108.0190692635385</v>
       </c>
       <c r="W29" t="n">
-        <v>125.0357494801535</v>
+        <v>125.0357494801534</v>
       </c>
       <c r="X29" t="n">
         <v>146.9219999490927</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.4248530728365</v>
+        <v>169.4248530728364</v>
       </c>
     </row>
     <row r="30">
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>103.8880291168112</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.4735447740308</v>
       </c>
       <c r="T30" t="n">
-        <v>214.9454809665883</v>
+        <v>2.084766620974889</v>
       </c>
       <c r="U30" t="n">
-        <v>24.36693987425285</v>
+        <v>78.02668401587468</v>
       </c>
       <c r="V30" t="n">
-        <v>27.78820656978883</v>
+        <v>27.78820656978877</v>
       </c>
       <c r="W30" t="n">
-        <v>53.84386923139817</v>
+        <v>53.84386923139812</v>
       </c>
       <c r="X30" t="n">
-        <v>4.452200093857186</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.5235717884122</v>
+        <v>10.52357178841214</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.4851058440719</v>
+        <v>22.48510584407184</v>
       </c>
       <c r="T31" t="n">
-        <v>10.87823306508895</v>
+        <v>10.8782330650889</v>
       </c>
       <c r="U31" t="n">
-        <v>75.79555397138256</v>
+        <v>75.7955539713825</v>
       </c>
       <c r="V31" t="n">
-        <v>32.24830083883649</v>
+        <v>32.24830083883643</v>
       </c>
       <c r="W31" t="n">
-        <v>77.44999274372191</v>
+        <v>77.44999274372185</v>
       </c>
       <c r="X31" t="n">
-        <v>9.05874106262911</v>
+        <v>9.058741062629053</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.280558468555</v>
+        <v>4.280558468554943</v>
       </c>
     </row>
     <row r="32">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>58.63282256986211</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>51.87880489469023</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.063707710285797</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.08476662097486</v>
+        <v>77.62695928999925</v>
       </c>
       <c r="U33" t="n">
         <v>24.36693987425277</v>
@@ -3171,7 +3171,7 @@
         <v>53.84386923139809</v>
       </c>
       <c r="X33" t="n">
-        <v>4.452200093857101</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
         <v>10.52357178841211</v>
@@ -3269,16 +3269,16 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D35" t="n">
-        <v>97.2172129513184</v>
+        <v>97.21721295131837</v>
       </c>
       <c r="E35" t="n">
-        <v>130.9239653707273</v>
+        <v>130.9239653707272</v>
       </c>
       <c r="F35" t="n">
         <v>162.6443029491046</v>
       </c>
       <c r="G35" t="n">
-        <v>178.271428787152</v>
+        <v>178.2714287871519</v>
       </c>
       <c r="H35" t="n">
         <v>106.3456309286079</v>
@@ -3320,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>9.594651002973848</v>
+        <v>9.594651002973825</v>
       </c>
       <c r="V35" t="n">
-        <v>80.32483691824314</v>
+        <v>80.32483691824311</v>
       </c>
       <c r="W35" t="n">
-        <v>97.34151713485801</v>
+        <v>97.34151713485798</v>
       </c>
       <c r="X35" t="n">
         <v>119.2277676037972</v>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>90.87837748868868</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3387,28 +3387,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.063707710285797</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>119.4499497957148</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V36" t="n">
-        <v>0.09397422449336545</v>
+        <v>0.09397422449333703</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>48.1013216260871</v>
+        <v>48.10132162608707</v>
       </c>
       <c r="V37" t="n">
-        <v>4.554068493541024</v>
+        <v>4.554068493540996</v>
       </c>
       <c r="W37" t="n">
-        <v>49.75576039842645</v>
+        <v>49.75576039842642</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,16 +3506,16 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D38" t="n">
-        <v>97.2172129513184</v>
+        <v>97.21721295131837</v>
       </c>
       <c r="E38" t="n">
-        <v>130.9239653707273</v>
+        <v>130.9239653707272</v>
       </c>
       <c r="F38" t="n">
         <v>162.6443029491046</v>
       </c>
       <c r="G38" t="n">
-        <v>178.271428787152</v>
+        <v>178.2714287871519</v>
       </c>
       <c r="H38" t="n">
         <v>106.3456309286079</v>
@@ -3557,13 +3557,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>9.594651002973848</v>
+        <v>9.594651002973825</v>
       </c>
       <c r="V38" t="n">
-        <v>80.32483691824314</v>
+        <v>80.32483691824311</v>
       </c>
       <c r="W38" t="n">
-        <v>97.34151713485801</v>
+        <v>97.34151713485798</v>
       </c>
       <c r="X38" t="n">
         <v>119.2277676037972</v>
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>143.9075086709623</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3624,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.063707710285797</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>7.159185415049829</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V39" t="n">
-        <v>0.09397422449336545</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>26.14963688610271</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.1013216260871</v>
+        <v>48.10132162608707</v>
       </c>
       <c r="V40" t="n">
-        <v>4.554068493541024</v>
+        <v>4.554068493540996</v>
       </c>
       <c r="W40" t="n">
-        <v>49.75576039842645</v>
+        <v>49.75576039842642</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,10 +3743,10 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D41" t="n">
-        <v>97.2172129513184</v>
+        <v>97.21721295131837</v>
       </c>
       <c r="E41" t="n">
-        <v>130.9239653707273</v>
+        <v>130.9239653707272</v>
       </c>
       <c r="F41" t="n">
         <v>162.6443029491046</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.594651002973853</v>
+        <v>9.594651002973819</v>
       </c>
       <c r="V41" t="n">
-        <v>80.32483691824314</v>
+        <v>80.32483691824311</v>
       </c>
       <c r="W41" t="n">
-        <v>97.34151713485801</v>
+        <v>97.34151713485798</v>
       </c>
       <c r="X41" t="n">
         <v>119.2277676037972</v>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.063707710285797</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3870,16 +3870,16 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9454809665883</v>
       </c>
       <c r="U42" t="n">
-        <v>27.07392519544554</v>
+        <v>111.7838937965948</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0.09397422449333703</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>26.14963688610268</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.1013216260871</v>
+        <v>48.10132162608707</v>
       </c>
       <c r="V43" t="n">
-        <v>4.554068493541024</v>
+        <v>4.554068493540996</v>
       </c>
       <c r="W43" t="n">
-        <v>49.75576039842645</v>
+        <v>49.75576039842642</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,16 +3980,16 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D44" t="n">
-        <v>97.2172129513184</v>
+        <v>97.21721295131837</v>
       </c>
       <c r="E44" t="n">
-        <v>130.9239653707273</v>
+        <v>130.9239653707272</v>
       </c>
       <c r="F44" t="n">
         <v>162.6443029491046</v>
       </c>
       <c r="G44" t="n">
-        <v>178.271428787152</v>
+        <v>178.2714287871519</v>
       </c>
       <c r="H44" t="n">
         <v>106.3456309286079</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.594651002973853</v>
+        <v>9.594651002973825</v>
       </c>
       <c r="V44" t="n">
-        <v>80.32483691824314</v>
+        <v>80.32483691824311</v>
       </c>
       <c r="W44" t="n">
-        <v>97.34151713485801</v>
+        <v>97.34151713485798</v>
       </c>
       <c r="X44" t="n">
         <v>119.2277676037972</v>
@@ -4053,19 +4053,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>48.15525545606143</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4098,28 +4098,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.063707710285772</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4735447740308</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V45" t="n">
-        <v>0.09397422449336545</v>
+        <v>0.09397422449333703</v>
       </c>
       <c r="W45" t="n">
-        <v>26.14963688610271</v>
+        <v>26.14963688610268</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>115.3410902087567</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.1013216260871</v>
+        <v>48.10132162608707</v>
       </c>
       <c r="V46" t="n">
-        <v>4.554068493541024</v>
+        <v>4.554068493540996</v>
       </c>
       <c r="W46" t="n">
-        <v>49.75576039842645</v>
+        <v>49.75576039842642</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>168.7170853712225</v>
+        <v>195.881026980439</v>
       </c>
       <c r="C11" t="n">
-        <v>168.7170853712225</v>
+        <v>195.881026980439</v>
       </c>
       <c r="D11" t="n">
-        <v>168.7170853712225</v>
+        <v>195.881026980439</v>
       </c>
       <c r="E11" t="n">
-        <v>168.7170853712225</v>
+        <v>195.881026980439</v>
       </c>
       <c r="F11" t="n">
-        <v>168.7170853712225</v>
+        <v>195.881026980439</v>
       </c>
       <c r="G11" t="n">
-        <v>148.4596329133919</v>
+        <v>95.94172750062316</v>
       </c>
       <c r="H11" t="n">
-        <v>48.52033343357612</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I11" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J11" t="n">
-        <v>105.8656999389688</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K11" t="n">
-        <v>105.8656999389688</v>
+        <v>105.8656999389689</v>
       </c>
       <c r="L11" t="n">
-        <v>154.429656653311</v>
+        <v>154.4296566533111</v>
       </c>
       <c r="M11" t="n">
-        <v>237.3423754552114</v>
+        <v>237.3423754552116</v>
       </c>
       <c r="N11" t="n">
-        <v>314.7542727129109</v>
+        <v>314.7542727129111</v>
       </c>
       <c r="O11" t="n">
-        <v>350.9427734025905</v>
+        <v>350.9427734025907</v>
       </c>
       <c r="P11" t="n">
-        <v>350.9427734025905</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="Q11" t="n">
-        <v>389.6063942513647</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="R11" t="n">
-        <v>395.7596259400702</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="S11" t="n">
-        <v>368.5956843308539</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="T11" t="n">
-        <v>368.5956843308539</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="U11" t="n">
-        <v>368.5956843308539</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="V11" t="n">
-        <v>368.5956843308539</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="W11" t="n">
-        <v>368.5956843308539</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="X11" t="n">
-        <v>268.6563848510382</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="Y11" t="n">
-        <v>168.7170853712225</v>
+        <v>295.8203264602548</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.915192518801405</v>
+        <v>26.91071605480772</v>
       </c>
       <c r="C12" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="D12" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="E12" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="F12" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G12" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H12" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I12" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J12" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K12" t="n">
-        <v>46.88760930735567</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="L12" t="n">
-        <v>144.838116727523</v>
+        <v>105.8656999389689</v>
       </c>
       <c r="M12" t="n">
-        <v>144.838116727523</v>
+        <v>203.8162073591364</v>
       </c>
       <c r="N12" t="n">
-        <v>212.9907034158982</v>
+        <v>301.7667147793039</v>
       </c>
       <c r="O12" t="n">
-        <v>310.9412108360656</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="P12" t="n">
-        <v>395.7596259400702</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="Q12" t="n">
-        <v>389.6346686569533</v>
+        <v>389.6346686569537</v>
       </c>
       <c r="R12" t="n">
-        <v>389.6346686569533</v>
+        <v>289.6953691771379</v>
       </c>
       <c r="S12" t="n">
-        <v>384.6223452076545</v>
+        <v>289.6953691771379</v>
       </c>
       <c r="T12" t="n">
-        <v>369.8853514891631</v>
+        <v>274.9583754586465</v>
       </c>
       <c r="U12" t="n">
-        <v>332.64111206029</v>
+        <v>175.0190759788306</v>
       </c>
       <c r="V12" t="n">
-        <v>291.9410476864311</v>
+        <v>134.3190116049716</v>
       </c>
       <c r="W12" t="n">
-        <v>224.9221321392295</v>
+        <v>67.30009605776986</v>
       </c>
       <c r="X12" t="n">
-        <v>207.7937914784328</v>
+        <v>50.17175539697314</v>
       </c>
       <c r="Y12" t="n">
-        <v>107.8544919986171</v>
+        <v>26.91071605480772</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30.42673967391211</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="C13" t="n">
-        <v>63.9864291250886</v>
+        <v>41.47488196997782</v>
       </c>
       <c r="D13" t="n">
-        <v>63.9864291250886</v>
+        <v>41.47488196997782</v>
       </c>
       <c r="E13" t="n">
-        <v>63.9864291250886</v>
+        <v>41.47488196997782</v>
       </c>
       <c r="F13" t="n">
-        <v>63.9864291250886</v>
+        <v>41.47488196997782</v>
       </c>
       <c r="G13" t="n">
-        <v>63.9864291250886</v>
+        <v>72.81865243151461</v>
       </c>
       <c r="H13" t="n">
-        <v>63.9864291250886</v>
+        <v>107.0513770706141</v>
       </c>
       <c r="I13" t="n">
-        <v>63.9864291250886</v>
+        <v>107.0513770706141</v>
       </c>
       <c r="J13" t="n">
-        <v>63.9864291250886</v>
+        <v>162.943399519521</v>
       </c>
       <c r="K13" t="n">
-        <v>161.936936545256</v>
+        <v>162.943399519521</v>
       </c>
       <c r="L13" t="n">
-        <v>162.9433995195203</v>
+        <v>162.943399519521</v>
       </c>
       <c r="M13" t="n">
-        <v>162.9433995195203</v>
+        <v>162.943399519521</v>
       </c>
       <c r="N13" t="n">
-        <v>162.9433995195203</v>
+        <v>162.943399519521</v>
       </c>
       <c r="O13" t="n">
-        <v>260.8939069396877</v>
+        <v>162.943399519521</v>
       </c>
       <c r="P13" t="n">
-        <v>260.8939069396877</v>
+        <v>260.8939069396885</v>
       </c>
       <c r="Q13" t="n">
-        <v>333.7400864343544</v>
+        <v>333.7400864343551</v>
       </c>
       <c r="R13" t="n">
-        <v>330.8752795052724</v>
+        <v>330.875279505273</v>
       </c>
       <c r="S13" t="n">
-        <v>295.5318825311276</v>
+        <v>295.5318825311281</v>
       </c>
       <c r="T13" t="n">
-        <v>271.9125994751474</v>
+        <v>271.9125994751478</v>
       </c>
       <c r="U13" t="n">
-        <v>182.7202649986685</v>
+        <v>182.7202649986689</v>
       </c>
       <c r="V13" t="n">
-        <v>137.5150548984989</v>
+        <v>137.5150548984991</v>
       </c>
       <c r="W13" t="n">
-        <v>46.65157014692977</v>
+        <v>46.65157014692995</v>
       </c>
       <c r="X13" t="n">
-        <v>24.87015780050492</v>
+        <v>24.87015780050502</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>107.8544919986171</v>
+        <v>207.7937914784331</v>
       </c>
       <c r="C14" t="n">
-        <v>107.8544919986171</v>
+        <v>207.7937914784331</v>
       </c>
       <c r="D14" t="n">
-        <v>7.915192518801405</v>
+        <v>207.7937914784331</v>
       </c>
       <c r="E14" t="n">
-        <v>7.915192518801405</v>
+        <v>207.7937914784331</v>
       </c>
       <c r="F14" t="n">
-        <v>7.915192518801405</v>
+        <v>207.7937914784331</v>
       </c>
       <c r="G14" t="n">
-        <v>7.915192518801405</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="H14" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I14" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J14" t="n">
-        <v>46.57881336757555</v>
+        <v>86.25821315235657</v>
       </c>
       <c r="K14" t="n">
-        <v>46.57881336757555</v>
+        <v>86.25821315235657</v>
       </c>
       <c r="L14" t="n">
-        <v>95.14277008191776</v>
+        <v>184.2087205725241</v>
       </c>
       <c r="M14" t="n">
-        <v>178.0554888838182</v>
+        <v>282.1592279926916</v>
       </c>
       <c r="N14" t="n">
-        <v>255.4673861415177</v>
+        <v>359.571125250391</v>
       </c>
       <c r="O14" t="n">
-        <v>291.6558868311973</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="P14" t="n">
-        <v>291.6558868311973</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="Q14" t="n">
-        <v>389.6063942513647</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="R14" t="n">
-        <v>395.7596259400702</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="S14" t="n">
-        <v>395.7596259400702</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="T14" t="n">
-        <v>373.4784332877928</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="U14" t="n">
-        <v>323.1817257033476</v>
+        <v>345.4629183556253</v>
       </c>
       <c r="V14" t="n">
-        <v>307.7330909582486</v>
+        <v>307.7330909582489</v>
       </c>
       <c r="W14" t="n">
-        <v>207.7937914784328</v>
+        <v>307.7330909582489</v>
       </c>
       <c r="X14" t="n">
-        <v>107.8544919986171</v>
+        <v>307.7330909582489</v>
       </c>
       <c r="Y14" t="n">
-        <v>107.8544919986171</v>
+        <v>207.7937914784331</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>60.31802574576124</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="C15" t="n">
-        <v>60.31802574576124</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="D15" t="n">
-        <v>60.31802574576124</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="E15" t="n">
-        <v>60.31802574576124</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="F15" t="n">
-        <v>60.31802574576124</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G15" t="n">
-        <v>60.31802574576124</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H15" t="n">
-        <v>60.31802574576124</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I15" t="n">
-        <v>60.31802574576124</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J15" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K15" t="n">
         <v>46.88760930735567</v>
       </c>
       <c r="L15" t="n">
-        <v>144.838116727523</v>
+        <v>46.88760930735567</v>
       </c>
       <c r="M15" t="n">
-        <v>242.7886241476904</v>
+        <v>144.8381167275232</v>
       </c>
       <c r="N15" t="n">
-        <v>310.9412108360656</v>
+        <v>212.9907034158985</v>
       </c>
       <c r="O15" t="n">
-        <v>310.9412108360656</v>
+        <v>310.941210836066</v>
       </c>
       <c r="P15" t="n">
-        <v>395.7596259400702</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="Q15" t="n">
-        <v>389.6346686569533</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="R15" t="n">
-        <v>389.6346686569533</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="S15" t="n">
-        <v>319.6468539231047</v>
+        <v>295.8203264602548</v>
       </c>
       <c r="T15" t="n">
-        <v>304.9098602046134</v>
+        <v>281.0833327417633</v>
       </c>
       <c r="U15" t="n">
-        <v>267.6656207757404</v>
+        <v>243.8390933128902</v>
       </c>
       <c r="V15" t="n">
-        <v>167.7263212959247</v>
+        <v>192.0017482066158</v>
       </c>
       <c r="W15" t="n">
-        <v>100.7074057487231</v>
+        <v>124.982832659414</v>
       </c>
       <c r="X15" t="n">
-        <v>83.57906508792652</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="Y15" t="n">
-        <v>60.31802574576124</v>
+        <v>7.915192518801414</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="C16" t="n">
-        <v>7.915192518801405</v>
+        <v>41.47488196997779</v>
       </c>
       <c r="D16" t="n">
-        <v>62.53666738402698</v>
+        <v>41.47488196997779</v>
       </c>
       <c r="E16" t="n">
-        <v>120.6295861973534</v>
+        <v>41.47488196997779</v>
       </c>
       <c r="F16" t="n">
-        <v>120.6295861973534</v>
+        <v>41.47488196997779</v>
       </c>
       <c r="G16" t="n">
-        <v>120.6295861973534</v>
+        <v>41.47488196997779</v>
       </c>
       <c r="H16" t="n">
-        <v>120.6295861973534</v>
+        <v>41.47488196997779</v>
       </c>
       <c r="I16" t="n">
-        <v>120.6295861973534</v>
+        <v>41.47488196997779</v>
       </c>
       <c r="J16" t="n">
-        <v>120.6295861973534</v>
+        <v>121.1603682137278</v>
       </c>
       <c r="K16" t="n">
-        <v>162.9433995195198</v>
+        <v>219.1108756338953</v>
       </c>
       <c r="L16" t="n">
-        <v>162.9433995195198</v>
+        <v>219.1108756338953</v>
       </c>
       <c r="M16" t="n">
-        <v>162.9433995195198</v>
+        <v>317.0613830540628</v>
       </c>
       <c r="N16" t="n">
-        <v>162.9433995195198</v>
+        <v>333.7400864343553</v>
       </c>
       <c r="O16" t="n">
-        <v>162.9433995195198</v>
+        <v>333.7400864343553</v>
       </c>
       <c r="P16" t="n">
-        <v>260.8939069396872</v>
+        <v>333.7400864343553</v>
       </c>
       <c r="Q16" t="n">
-        <v>333.7400864343539</v>
+        <v>333.7400864343553</v>
       </c>
       <c r="R16" t="n">
-        <v>330.875279505272</v>
+        <v>330.8752795052732</v>
       </c>
       <c r="S16" t="n">
-        <v>295.5318825311273</v>
+        <v>295.5318825311283</v>
       </c>
       <c r="T16" t="n">
-        <v>271.9125994751471</v>
+        <v>271.9125994751479</v>
       </c>
       <c r="U16" t="n">
-        <v>182.7202649986683</v>
+        <v>182.720264998669</v>
       </c>
       <c r="V16" t="n">
-        <v>137.5150548984987</v>
+        <v>137.5150548984992</v>
       </c>
       <c r="W16" t="n">
-        <v>46.65157014692966</v>
+        <v>46.65157014693001</v>
       </c>
       <c r="X16" t="n">
-        <v>24.87015780050487</v>
+        <v>24.87015780050505</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>259.7349002271171</v>
+        <v>259.7349002271183</v>
       </c>
       <c r="C17" t="n">
-        <v>239.1706370796975</v>
+        <v>239.1706370796985</v>
       </c>
       <c r="D17" t="n">
-        <v>231.1653009413199</v>
+        <v>231.1653009413207</v>
       </c>
       <c r="E17" t="n">
-        <v>189.1127401368727</v>
+        <v>189.1127401368734</v>
       </c>
       <c r="F17" t="n">
-        <v>115.0194343037615</v>
+        <v>115.0194343037622</v>
       </c>
       <c r="G17" t="n">
-        <v>25.14115287666345</v>
+        <v>25.14115287666358</v>
       </c>
       <c r="H17" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I17" t="n">
-        <v>96.31420339138266</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J17" t="n">
-        <v>96.31420339138266</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K17" t="n">
-        <v>96.31420339138266</v>
+        <v>105.8656999389689</v>
       </c>
       <c r="L17" t="n">
-        <v>144.8781601057249</v>
+        <v>154.4296566533111</v>
       </c>
       <c r="M17" t="n">
-        <v>227.7908789076253</v>
+        <v>237.3423754552116</v>
       </c>
       <c r="N17" t="n">
-        <v>305.2027761653248</v>
+        <v>314.7542727129111</v>
       </c>
       <c r="O17" t="n">
-        <v>341.3912768550044</v>
+        <v>350.9427734025907</v>
       </c>
       <c r="P17" t="n">
-        <v>341.3912768550044</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="Q17" t="n">
-        <v>341.3912768550044</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="R17" t="n">
-        <v>341.3912768550044</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="S17" t="n">
-        <v>341.3912768550044</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="T17" t="n">
-        <v>341.3912768550044</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="U17" t="n">
-        <v>386.8822036165496</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="V17" t="n">
-        <v>395.7596259400702</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="W17" t="n">
-        <v>387.6287300203396</v>
+        <v>387.6287300203398</v>
       </c>
       <c r="X17" t="n">
-        <v>357.3905103946096</v>
+        <v>357.3905103946098</v>
       </c>
       <c r="Y17" t="n">
-        <v>304.4221360984312</v>
+        <v>304.4221360984315</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>260.1966247053927</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="C18" t="n">
-        <v>160.2573252255769</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="D18" t="n">
-        <v>160.2573252255769</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="E18" t="n">
-        <v>160.2573252255769</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="F18" t="n">
-        <v>160.2573252255769</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G18" t="n">
-        <v>160.2573252255769</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H18" t="n">
-        <v>160.2573252255769</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I18" t="n">
-        <v>60.31802574576124</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J18" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K18" t="n">
-        <v>7.915192518801405</v>
+        <v>46.88760930735567</v>
       </c>
       <c r="L18" t="n">
-        <v>105.8656999389688</v>
+        <v>144.8381167275232</v>
       </c>
       <c r="M18" t="n">
-        <v>199.8586110997355</v>
+        <v>242.7886241476907</v>
       </c>
       <c r="N18" t="n">
-        <v>297.8091185199029</v>
+        <v>310.941210836066</v>
       </c>
       <c r="O18" t="n">
-        <v>395.7596259400702</v>
+        <v>310.941210836066</v>
       </c>
       <c r="P18" t="n">
-        <v>395.7596259400702</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="Q18" t="n">
-        <v>389.6346686569533</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="R18" t="n">
-        <v>389.6346686569533</v>
+        <v>295.8203264602548</v>
       </c>
       <c r="S18" t="n">
-        <v>289.6953691771376</v>
+        <v>295.8203264602548</v>
       </c>
       <c r="T18" t="n">
-        <v>260.1966247053927</v>
+        <v>295.8203264602548</v>
       </c>
       <c r="U18" t="n">
-        <v>260.1966247053927</v>
+        <v>295.8203264602548</v>
       </c>
       <c r="V18" t="n">
-        <v>260.1966247053927</v>
+        <v>295.8203264602548</v>
       </c>
       <c r="W18" t="n">
-        <v>260.1966247053927</v>
+        <v>295.8203264602548</v>
       </c>
       <c r="X18" t="n">
-        <v>260.1966247053927</v>
+        <v>195.881026980439</v>
       </c>
       <c r="Y18" t="n">
-        <v>260.1966247053927</v>
+        <v>107.8544919986173</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="C19" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="D19" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="E19" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="F19" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G19" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I19" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J19" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K19" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="L19" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="M19" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="N19" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="O19" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="P19" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="R19" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="S19" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="T19" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="U19" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="V19" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="W19" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="X19" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
     </row>
     <row r="20">
@@ -5729,73 +5729,73 @@
         <v>259.7349002271183</v>
       </c>
       <c r="C20" t="n">
-        <v>239.1706370796985</v>
+        <v>239.1706370796987</v>
       </c>
       <c r="D20" t="n">
-        <v>231.165300941321</v>
+        <v>231.1653009413209</v>
       </c>
       <c r="E20" t="n">
-        <v>189.1127401368735</v>
+        <v>189.1127401368736</v>
       </c>
       <c r="F20" t="n">
-        <v>115.0194343037624</v>
+        <v>115.0194343037622</v>
       </c>
       <c r="G20" t="n">
-        <v>25.14115287666342</v>
+        <v>25.14115287666355</v>
       </c>
       <c r="H20" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I20" t="n">
-        <v>7.915192518801405</v>
+        <v>32.19343489381342</v>
       </c>
       <c r="J20" t="n">
-        <v>7.915192518801405</v>
+        <v>32.19343489381342</v>
       </c>
       <c r="K20" t="n">
-        <v>7.915192518801405</v>
+        <v>32.19343489381342</v>
       </c>
       <c r="L20" t="n">
-        <v>56.47914923314362</v>
+        <v>80.75739160815563</v>
       </c>
       <c r="M20" t="n">
-        <v>139.3918680350441</v>
+        <v>163.6701104100561</v>
       </c>
       <c r="N20" t="n">
-        <v>216.8037652927435</v>
+        <v>261.6206178302236</v>
       </c>
       <c r="O20" t="n">
-        <v>252.9922659824232</v>
+        <v>297.8091185199032</v>
       </c>
       <c r="P20" t="n">
-        <v>252.9922659824232</v>
+        <v>297.8091185199032</v>
       </c>
       <c r="Q20" t="n">
-        <v>252.9922659824232</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="R20" t="n">
-        <v>252.9922659824232</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="S20" t="n">
-        <v>252.9922659824232</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="T20" t="n">
-        <v>307.9818972369125</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="U20" t="n">
-        <v>386.8822036165496</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="V20" t="n">
-        <v>395.7596259400702</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="W20" t="n">
-        <v>387.6287300203394</v>
+        <v>387.6287300203398</v>
       </c>
       <c r="X20" t="n">
-        <v>357.3905103946096</v>
+        <v>357.3905103946097</v>
       </c>
       <c r="Y20" t="n">
-        <v>304.4221360984313</v>
+        <v>304.4221360984314</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>389.6346686569533</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="C21" t="n">
-        <v>389.6346686569533</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="D21" t="n">
-        <v>289.6953691771376</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="E21" t="n">
-        <v>289.6953691771376</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="F21" t="n">
-        <v>260.1966247053927</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G21" t="n">
-        <v>260.1966247053927</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H21" t="n">
-        <v>160.2573252255769</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I21" t="n">
-        <v>60.31802574576124</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J21" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K21" t="n">
-        <v>7.915192518801405</v>
+        <v>46.88760930735567</v>
       </c>
       <c r="L21" t="n">
-        <v>105.8656999389688</v>
+        <v>115.040195995731</v>
       </c>
       <c r="M21" t="n">
-        <v>203.8162073591362</v>
+        <v>212.9907034158985</v>
       </c>
       <c r="N21" t="n">
-        <v>297.8091185199029</v>
+        <v>310.941210836066</v>
       </c>
       <c r="O21" t="n">
-        <v>395.7596259400702</v>
+        <v>310.941210836066</v>
       </c>
       <c r="P21" t="n">
-        <v>395.7596259400702</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="Q21" t="n">
-        <v>389.6346686569533</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="R21" t="n">
-        <v>389.6346686569533</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="S21" t="n">
-        <v>389.6346686569533</v>
+        <v>307.7330909582489</v>
       </c>
       <c r="T21" t="n">
-        <v>389.6346686569533</v>
+        <v>307.7330909582489</v>
       </c>
       <c r="U21" t="n">
-        <v>389.6346686569533</v>
+        <v>307.7330909582489</v>
       </c>
       <c r="V21" t="n">
-        <v>389.6346686569533</v>
+        <v>307.7330909582489</v>
       </c>
       <c r="W21" t="n">
-        <v>389.6346686569533</v>
+        <v>307.7330909582489</v>
       </c>
       <c r="X21" t="n">
-        <v>389.6346686569533</v>
+        <v>207.7937914784331</v>
       </c>
       <c r="Y21" t="n">
-        <v>389.6346686569533</v>
+        <v>207.7937914784331</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="C22" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="D22" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="E22" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="F22" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G22" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H22" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I22" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J22" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K22" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="L22" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="M22" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="N22" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="O22" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="P22" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="R22" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="S22" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="T22" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="U22" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="V22" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="W22" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="X22" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.915192518801405</v>
+        <v>7.915192518801414</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>259.7349002271176</v>
+        <v>259.7349002271186</v>
       </c>
       <c r="C23" t="n">
-        <v>239.1706370796982</v>
+        <v>239.1706370796987</v>
       </c>
       <c r="D23" t="n">
-        <v>231.1653009413205</v>
+        <v>231.165300941321</v>
       </c>
       <c r="E23" t="n">
-        <v>189.1127401368733</v>
+        <v>189.1127401368735</v>
       </c>
       <c r="F23" t="n">
-        <v>115.019434303762</v>
+        <v>115.0194343037622</v>
       </c>
       <c r="G23" t="n">
-        <v>25.14115287666341</v>
+        <v>25.14115287666355</v>
       </c>
       <c r="H23" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="I23" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="J23" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="K23" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="L23" t="n">
-        <v>56.4791492331436</v>
+        <v>56.47914923314363</v>
       </c>
       <c r="M23" t="n">
-        <v>139.3918680350441</v>
+        <v>154.4296566533112</v>
       </c>
       <c r="N23" t="n">
-        <v>216.8037652927435</v>
+        <v>231.8415539110107</v>
       </c>
       <c r="O23" t="n">
-        <v>252.9922659824232</v>
+        <v>268.0300546006903</v>
       </c>
       <c r="P23" t="n">
-        <v>252.9922659824232</v>
+        <v>268.0300546006903</v>
       </c>
       <c r="Q23" t="n">
-        <v>252.9922659824232</v>
+        <v>268.0300546006903</v>
       </c>
       <c r="R23" t="n">
-        <v>307.9818972369118</v>
+        <v>268.0300546006903</v>
       </c>
       <c r="S23" t="n">
-        <v>307.9818972369118</v>
+        <v>365.9805620208579</v>
       </c>
       <c r="T23" t="n">
-        <v>307.9818972369118</v>
+        <v>365.9805620208579</v>
       </c>
       <c r="U23" t="n">
-        <v>386.882203616549</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="V23" t="n">
-        <v>395.7596259400696</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="W23" t="n">
-        <v>387.6287300203388</v>
+        <v>387.6287300203401</v>
       </c>
       <c r="X23" t="n">
-        <v>357.3905103946088</v>
+        <v>357.3905103946101</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.4221360984306</v>
+        <v>304.4221360984317</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>389.6346686569526</v>
+        <v>307.7330909582491</v>
       </c>
       <c r="C24" t="n">
-        <v>389.6346686569526</v>
+        <v>207.7937914784332</v>
       </c>
       <c r="D24" t="n">
-        <v>360.1359241852078</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="E24" t="n">
-        <v>260.1966247053923</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="F24" t="n">
-        <v>160.2573252255768</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="G24" t="n">
-        <v>60.31802574576123</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="H24" t="n">
-        <v>60.31802574576123</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="I24" t="n">
-        <v>60.31802574576123</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="J24" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="K24" t="n">
-        <v>46.88760930735565</v>
+        <v>46.88760930735568</v>
       </c>
       <c r="L24" t="n">
-        <v>144.8381167275229</v>
+        <v>144.8381167275232</v>
       </c>
       <c r="M24" t="n">
-        <v>242.7886241476901</v>
+        <v>242.7886241476908</v>
       </c>
       <c r="N24" t="n">
-        <v>310.9412108360649</v>
+        <v>242.7886241476908</v>
       </c>
       <c r="O24" t="n">
-        <v>310.9412108360649</v>
+        <v>340.7391315678584</v>
       </c>
       <c r="P24" t="n">
-        <v>395.7596259400696</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="Q24" t="n">
-        <v>389.6346686569526</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="R24" t="n">
-        <v>389.6346686569526</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="S24" t="n">
-        <v>389.6346686569526</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="T24" t="n">
-        <v>389.6346686569526</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="U24" t="n">
-        <v>389.6346686569526</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="V24" t="n">
-        <v>389.6346686569526</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="W24" t="n">
-        <v>389.6346686569526</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="X24" t="n">
-        <v>389.6346686569526</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="Y24" t="n">
-        <v>389.6346686569526</v>
+        <v>307.7330909582491</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="C25" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="D25" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="E25" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="F25" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="G25" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="H25" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="I25" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="J25" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="K25" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="L25" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="M25" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="N25" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="O25" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="P25" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="R25" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="S25" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="T25" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="U25" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="V25" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="W25" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="X25" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.915192518801391</v>
+        <v>7.915192518801419</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>1024.891650267094</v>
       </c>
       <c r="C26" t="n">
-        <v>886.1595461907651</v>
+        <v>886.1595461907656</v>
       </c>
       <c r="D26" t="n">
-        <v>759.9863691234784</v>
+        <v>759.9863691234789</v>
       </c>
       <c r="E26" t="n">
-        <v>599.7659673901221</v>
+        <v>599.7659673901226</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5048206281018</v>
+        <v>407.5048206281023</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4586982720944</v>
+        <v>199.4586982720948</v>
       </c>
       <c r="H26" t="n">
-        <v>64.06489698532366</v>
+        <v>64.0648969853237</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09092491936867</v>
+        <v>36.0909249193687</v>
       </c>
       <c r="J26" t="n">
-        <v>171.8005131365267</v>
+        <v>171.8005131365276</v>
       </c>
       <c r="K26" t="n">
-        <v>377.358377551167</v>
+        <v>377.3583775511679</v>
       </c>
       <c r="L26" t="n">
-        <v>636.6544414676665</v>
+        <v>636.654441467668</v>
       </c>
       <c r="M26" t="n">
-        <v>930.2992674717243</v>
+        <v>930.2992674717257</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.443271931581</v>
+        <v>1218.443271931583</v>
       </c>
       <c r="O26" t="n">
-        <v>1465.363879823418</v>
+        <v>1465.36387982342</v>
       </c>
       <c r="P26" t="n">
-        <v>1662.834462498258</v>
+        <v>1662.83446249826</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.013205691</v>
+        <v>1786.013205691001</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.546245968433</v>
+        <v>1804.546245968435</v>
       </c>
       <c r="S26" t="n">
         <v>1790.013473208037</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.363449404579</v>
+        <v>1780.36344940458</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.697910668953</v>
+        <v>1742.697910668954</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.587739695682</v>
+        <v>1633.587739695683</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.289002847042</v>
+        <v>1507.289002847043</v>
       </c>
       <c r="X26" t="n">
-        <v>1358.882942292403</v>
+        <v>1358.882942292404</v>
       </c>
       <c r="Y26" t="n">
         <v>1187.746727067316</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>492.5861729506619</v>
+        <v>225.503199186405</v>
       </c>
       <c r="C27" t="n">
-        <v>303.1738986836257</v>
+        <v>36.0909249193687</v>
       </c>
       <c r="D27" t="n">
-        <v>142.3937824446574</v>
+        <v>36.0909249193687</v>
       </c>
       <c r="E27" t="n">
-        <v>36.09092491936867</v>
+        <v>36.0909249193687</v>
       </c>
       <c r="F27" t="n">
-        <v>36.09092491936867</v>
+        <v>36.0909249193687</v>
       </c>
       <c r="G27" t="n">
-        <v>36.09092491936867</v>
+        <v>36.0909249193687</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09092491936867</v>
+        <v>36.0909249193687</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09092491936867</v>
+        <v>36.0909249193687</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09092491936867</v>
+        <v>36.0909249193687</v>
       </c>
       <c r="K27" t="n">
-        <v>75.06334170792293</v>
+        <v>75.06334170792296</v>
       </c>
       <c r="L27" t="n">
-        <v>193.753107909693</v>
+        <v>193.7531079096931</v>
       </c>
       <c r="M27" t="n">
-        <v>377.0131310500096</v>
+        <v>377.0131310500097</v>
       </c>
       <c r="N27" t="n">
-        <v>583.5433912625123</v>
+        <v>583.5433912625124</v>
       </c>
       <c r="O27" t="n">
-        <v>716.7311480351779</v>
+        <v>716.731148035178</v>
       </c>
       <c r="P27" t="n">
-        <v>801.5495631391825</v>
+        <v>801.5495631391826</v>
       </c>
       <c r="Q27" t="n">
-        <v>795.4246058560656</v>
+        <v>801.5495631391826</v>
       </c>
       <c r="R27" t="n">
-        <v>795.4246058560656</v>
+        <v>779.8274243075272</v>
       </c>
       <c r="S27" t="n">
-        <v>795.4246058560656</v>
+        <v>779.8274243075272</v>
       </c>
       <c r="T27" t="n">
-        <v>793.318780986394</v>
+        <v>562.7107768665288</v>
       </c>
       <c r="U27" t="n">
-        <v>768.7057104063407</v>
+        <v>323.0868837151487</v>
       </c>
       <c r="V27" t="n">
-        <v>740.6368148813016</v>
+        <v>295.0179881901095</v>
       </c>
       <c r="W27" t="n">
-        <v>686.2490681829196</v>
+        <v>240.6302414917275</v>
       </c>
       <c r="X27" t="n">
-        <v>681.7518963709426</v>
+        <v>236.1330696797506</v>
       </c>
       <c r="Y27" t="n">
-        <v>671.122025877597</v>
+        <v>225.503199186405</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09092491936867</v>
+        <v>36.0909249193687</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09092491936867</v>
+        <v>36.0909249193687</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09092491936867</v>
+        <v>36.0909249193687</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09092491936867</v>
+        <v>36.0909249193687</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09092491936867</v>
+        <v>36.0909249193687</v>
       </c>
       <c r="G28" t="n">
-        <v>36.09092491936867</v>
+        <v>36.0909249193687</v>
       </c>
       <c r="H28" t="n">
-        <v>36.09092491936867</v>
+        <v>82.7034581471965</v>
       </c>
       <c r="I28" t="n">
-        <v>36.09092491936867</v>
+        <v>90.95212056564924</v>
       </c>
       <c r="J28" t="n">
-        <v>36.09092491936867</v>
+        <v>90.95212056564924</v>
       </c>
       <c r="K28" t="n">
-        <v>181.0720313485965</v>
+        <v>90.95212056564924</v>
       </c>
       <c r="L28" t="n">
-        <v>181.0720313485965</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="M28" t="n">
-        <v>270.6328299641015</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="N28" t="n">
-        <v>270.6328299641015</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="O28" t="n">
-        <v>270.6328299641015</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="P28" t="n">
-        <v>270.6328299641015</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.6328299641015</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="R28" t="n">
-        <v>270.6328299641015</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="S28" t="n">
-        <v>247.9206018387764</v>
+        <v>247.9206018387766</v>
       </c>
       <c r="T28" t="n">
-        <v>236.9324876316159</v>
+        <v>236.9324876316161</v>
       </c>
       <c r="U28" t="n">
-        <v>160.3713220039568</v>
+        <v>160.371322003957</v>
       </c>
       <c r="V28" t="n">
-        <v>127.7972807526069</v>
+        <v>127.797280752607</v>
       </c>
       <c r="W28" t="n">
-        <v>49.56496484985755</v>
+        <v>49.56496484985764</v>
       </c>
       <c r="X28" t="n">
-        <v>40.41472135225245</v>
+        <v>40.41472135225251</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09092491936867</v>
+        <v>36.0909249193687</v>
       </c>
     </row>
     <row r="29">
@@ -6440,37 +6440,37 @@
         <v>1024.891650267094</v>
       </c>
       <c r="C29" t="n">
-        <v>886.1595461907652</v>
+        <v>886.1595461907649</v>
       </c>
       <c r="D29" t="n">
-        <v>759.9863691234785</v>
+        <v>759.9863691234782</v>
       </c>
       <c r="E29" t="n">
-        <v>599.7659673901222</v>
+        <v>599.765967390122</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5048206281019</v>
+        <v>407.5048206281018</v>
       </c>
       <c r="G29" t="n">
         <v>199.4586982720944</v>
       </c>
       <c r="H29" t="n">
-        <v>64.0648969853237</v>
+        <v>64.06489698532364</v>
       </c>
       <c r="I29" t="n">
         <v>36.09092491936867</v>
       </c>
       <c r="J29" t="n">
-        <v>171.8005131365276</v>
+        <v>171.8005131365267</v>
       </c>
       <c r="K29" t="n">
-        <v>377.3583775511678</v>
+        <v>377.3583775511669</v>
       </c>
       <c r="L29" t="n">
-        <v>636.6544414676674</v>
+        <v>636.6544414676664</v>
       </c>
       <c r="M29" t="n">
-        <v>930.2992674717251</v>
+        <v>930.2992674717243</v>
       </c>
       <c r="N29" t="n">
         <v>1218.443271931581</v>
@@ -6488,22 +6488,22 @@
         <v>1804.546245968433</v>
       </c>
       <c r="S29" t="n">
-        <v>1790.013473208037</v>
+        <v>1790.013473208036</v>
       </c>
       <c r="T29" t="n">
-        <v>1780.363449404579</v>
+        <v>1780.363449404578</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.697910668954</v>
+        <v>1742.697910668953</v>
       </c>
       <c r="V29" t="n">
-        <v>1633.587739695682</v>
+        <v>1633.587739695681</v>
       </c>
       <c r="W29" t="n">
         <v>1507.289002847042</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.882942292403</v>
+        <v>1358.882942292402</v>
       </c>
       <c r="Y29" t="n">
         <v>1187.746727067316</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>462.2361605893869</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="C30" t="n">
-        <v>462.2361605893869</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="D30" t="n">
-        <v>301.4560443504187</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="E30" t="n">
-        <v>301.4560443504187</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="F30" t="n">
-        <v>141.0283280676628</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="G30" t="n">
-        <v>141.0283280676628</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="H30" t="n">
-        <v>141.0283280676628</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="I30" t="n">
         <v>36.09092491936867</v>
@@ -6567,25 +6567,25 @@
         <v>801.5495631391825</v>
       </c>
       <c r="S30" t="n">
-        <v>801.5495631391825</v>
+        <v>608.141942155313</v>
       </c>
       <c r="T30" t="n">
-        <v>584.4329156981842</v>
+        <v>606.0361172856415</v>
       </c>
       <c r="U30" t="n">
-        <v>559.8198451181307</v>
+        <v>527.2212849463741</v>
       </c>
       <c r="V30" t="n">
-        <v>531.7509495930915</v>
+        <v>499.1523894213349</v>
       </c>
       <c r="W30" t="n">
-        <v>477.3632028947095</v>
+        <v>444.764642722953</v>
       </c>
       <c r="X30" t="n">
-        <v>472.8660310827325</v>
+        <v>225.2566483396494</v>
       </c>
       <c r="Y30" t="n">
-        <v>462.2361605893869</v>
+        <v>214.6267778463038</v>
       </c>
     </row>
     <row r="31">
@@ -6622,46 +6622,46 @@
         <v>36.09092491936867</v>
       </c>
       <c r="K31" t="n">
-        <v>36.09092491936867</v>
+        <v>75.45396469873509</v>
       </c>
       <c r="L31" t="n">
-        <v>36.09092491936867</v>
+        <v>75.45396469873509</v>
       </c>
       <c r="M31" t="n">
-        <v>36.09092491936867</v>
+        <v>75.45396469873509</v>
       </c>
       <c r="N31" t="n">
-        <v>36.09092491936867</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="O31" t="n">
-        <v>36.09092491936867</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="P31" t="n">
-        <v>185.4068418807071</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.6328299641019</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="R31" t="n">
-        <v>270.6328299641019</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="S31" t="n">
-        <v>247.9206018387767</v>
+        <v>247.9206018387764</v>
       </c>
       <c r="T31" t="n">
-        <v>236.9324876316162</v>
+        <v>236.9324876316159</v>
       </c>
       <c r="U31" t="n">
-        <v>160.3713220039571</v>
+        <v>160.3713220039568</v>
       </c>
       <c r="V31" t="n">
-        <v>127.7972807526071</v>
+        <v>127.7972807526069</v>
       </c>
       <c r="W31" t="n">
-        <v>49.56496484985767</v>
+        <v>49.56496484985755</v>
       </c>
       <c r="X31" t="n">
-        <v>40.41472135225251</v>
+        <v>40.41472135225245</v>
       </c>
       <c r="Y31" t="n">
         <v>36.09092491936867</v>
@@ -6677,16 +6677,16 @@
         <v>1024.891650267094</v>
       </c>
       <c r="C32" t="n">
-        <v>886.1595461907657</v>
+        <v>886.1595461907652</v>
       </c>
       <c r="D32" t="n">
-        <v>759.986369123479</v>
+        <v>759.9863691234785</v>
       </c>
       <c r="E32" t="n">
-        <v>599.7659673901228</v>
+        <v>599.7659673901223</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5048206281025</v>
+        <v>407.504820628102</v>
       </c>
       <c r="G32" t="n">
         <v>199.4586982720948</v>
@@ -6731,16 +6731,16 @@
         <v>1780.363449404579</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.697910668954</v>
+        <v>1742.697910668953</v>
       </c>
       <c r="V32" t="n">
         <v>1633.587739695682</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.289002847043</v>
+        <v>1507.289002847042</v>
       </c>
       <c r="X32" t="n">
-        <v>1358.882942292404</v>
+        <v>1358.882942292403</v>
       </c>
       <c r="Y32" t="n">
         <v>1187.746727067316</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>611.8969525747062</v>
+        <v>385.9309154691608</v>
       </c>
       <c r="C33" t="n">
-        <v>422.4846783076699</v>
+        <v>196.5186412021246</v>
       </c>
       <c r="D33" t="n">
-        <v>422.4846783076699</v>
+        <v>196.5186412021246</v>
       </c>
       <c r="E33" t="n">
-        <v>248.9214744290844</v>
+        <v>196.5186412021246</v>
       </c>
       <c r="F33" t="n">
-        <v>88.4937581463285</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="G33" t="n">
-        <v>88.4937581463285</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="H33" t="n">
-        <v>88.4937581463285</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="I33" t="n">
-        <v>88.4937581463285</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="J33" t="n">
         <v>36.09092491936867</v>
@@ -6798,31 +6798,31 @@
         <v>801.5495631391825</v>
       </c>
       <c r="Q33" t="n">
-        <v>795.4246058560656</v>
+        <v>801.5495631391825</v>
       </c>
       <c r="R33" t="n">
-        <v>795.4246058560656</v>
+        <v>801.5495631391825</v>
       </c>
       <c r="S33" t="n">
-        <v>795.4246058560656</v>
+        <v>801.5495631391825</v>
       </c>
       <c r="T33" t="n">
-        <v>793.318780986394</v>
+        <v>723.1384931492843</v>
       </c>
       <c r="U33" t="n">
-        <v>768.7057104063407</v>
+        <v>698.525422569231</v>
       </c>
       <c r="V33" t="n">
-        <v>740.6368148813016</v>
+        <v>670.4565270441918</v>
       </c>
       <c r="W33" t="n">
-        <v>686.2490681829197</v>
+        <v>616.06878034581</v>
       </c>
       <c r="X33" t="n">
-        <v>681.7518963709429</v>
+        <v>396.5607859625064</v>
       </c>
       <c r="Y33" t="n">
-        <v>671.1220258775973</v>
+        <v>385.9309154691608</v>
       </c>
     </row>
     <row r="34">
@@ -6844,22 +6844,22 @@
         <v>36.09092491936867</v>
       </c>
       <c r="F34" t="n">
-        <v>109.2854187252638</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="G34" t="n">
-        <v>153.008997775529</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="H34" t="n">
-        <v>199.6215310033568</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="I34" t="n">
-        <v>199.6215310033568</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="J34" t="n">
-        <v>270.6328299641013</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="K34" t="n">
-        <v>270.6328299641013</v>
+        <v>181.0720313485966</v>
       </c>
       <c r="L34" t="n">
         <v>270.6328299641013</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>821.1586532866077</v>
+        <v>821.1586532866079</v>
       </c>
       <c r="C35" t="n">
         <v>710.4005212762339</v>
@@ -6920,13 +6920,13 @@
         <v>612.2013162749022</v>
       </c>
       <c r="E35" t="n">
-        <v>479.9548866075009</v>
+        <v>479.954886607501</v>
       </c>
       <c r="F35" t="n">
-        <v>315.6677119114356</v>
+        <v>315.6677119114357</v>
       </c>
       <c r="G35" t="n">
-        <v>135.5955616213834</v>
+        <v>135.5955616213833</v>
       </c>
       <c r="H35" t="n">
         <v>28.17573240056726</v>
@@ -6935,31 +6935,31 @@
         <v>28.17573240056726</v>
       </c>
       <c r="J35" t="n">
-        <v>191.3026106395687</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="K35" t="n">
-        <v>191.3026106395687</v>
+        <v>261.1508868370501</v>
       </c>
       <c r="L35" t="n">
-        <v>478.0159645779106</v>
+        <v>547.8642407753921</v>
       </c>
       <c r="M35" t="n">
-        <v>799.0780806038108</v>
+        <v>630.7769595772925</v>
       </c>
       <c r="N35" t="n">
-        <v>1114.63937508551</v>
+        <v>708.188856834992</v>
       </c>
       <c r="O35" t="n">
-        <v>1181.107235383052</v>
+        <v>982.5267547486714</v>
       </c>
       <c r="P35" t="n">
-        <v>1181.107235383052</v>
+        <v>1194.280954822429</v>
       </c>
       <c r="Q35" t="n">
-        <v>1331.703268597636</v>
+        <v>1344.876988037013</v>
       </c>
       <c r="R35" t="n">
-        <v>1377.653598896912</v>
+        <v>1390.827318336289</v>
       </c>
       <c r="S35" t="n">
         <v>1390.827318336289</v>
@@ -6974,13 +6974,13 @@
         <v>1317.958854451376</v>
       </c>
       <c r="W35" t="n">
-        <v>1219.634089668691</v>
+        <v>1219.634089668692</v>
       </c>
       <c r="X35" t="n">
-        <v>1099.202001180007</v>
+        <v>1099.202001180008</v>
       </c>
       <c r="Y35" t="n">
-        <v>956.0397580208748</v>
+        <v>956.0397580208752</v>
       </c>
     </row>
     <row r="36">
@@ -6990,7 +6990,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>119.9720732982326</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="C36" t="n">
         <v>28.17573240056726</v>
@@ -7017,7 +7017,7 @@
         <v>28.17573240056726</v>
       </c>
       <c r="K36" t="n">
-        <v>67.14814918912153</v>
+        <v>67.14814918912151</v>
       </c>
       <c r="L36" t="n">
         <v>185.8379153908916</v>
@@ -7035,31 +7035,31 @@
         <v>793.6343706203811</v>
       </c>
       <c r="Q36" t="n">
-        <v>787.5094133372642</v>
+        <v>793.6343706203811</v>
       </c>
       <c r="R36" t="n">
-        <v>787.5094133372642</v>
+        <v>657.9496332259066</v>
       </c>
       <c r="S36" t="n">
-        <v>787.5094133372642</v>
+        <v>657.9496332259066</v>
       </c>
       <c r="T36" t="n">
-        <v>787.5094133372642</v>
+        <v>537.2931182807401</v>
       </c>
       <c r="U36" t="n">
-        <v>787.5094133372642</v>
+        <v>297.6692251293601</v>
       </c>
       <c r="V36" t="n">
-        <v>787.41448987818</v>
+        <v>297.5743016702759</v>
       </c>
       <c r="W36" t="n">
-        <v>518.0159206084713</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="X36" t="n">
-        <v>298.5079262251677</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="Y36" t="n">
-        <v>298.5079262251677</v>
+        <v>28.17573240056726</v>
       </c>
     </row>
     <row r="37">
@@ -7075,19 +7075,19 @@
         <v>28.17573240056726</v>
       </c>
       <c r="D37" t="n">
-        <v>28.17573240056726</v>
+        <v>60.48046991235312</v>
       </c>
       <c r="E37" t="n">
-        <v>28.17573240056726</v>
+        <v>60.48046991235312</v>
       </c>
       <c r="F37" t="n">
-        <v>28.17573240056726</v>
+        <v>60.48046991235312</v>
       </c>
       <c r="G37" t="n">
-        <v>28.17573240056726</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="H37" t="n">
-        <v>56.51882834801353</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="I37" t="n">
         <v>131.6213389844607</v>
@@ -7126,10 +7126,10 @@
         <v>131.6213389844607</v>
       </c>
       <c r="U37" t="n">
-        <v>83.03414542275662</v>
+        <v>83.03414542275657</v>
       </c>
       <c r="V37" t="n">
-        <v>78.43407623736165</v>
+        <v>78.43407623736162</v>
       </c>
       <c r="W37" t="n">
         <v>28.17573240056726</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>821.1586532866077</v>
+        <v>821.1586532866078</v>
       </c>
       <c r="C38" t="n">
-        <v>710.400521276234</v>
+        <v>710.4005212762341</v>
       </c>
       <c r="D38" t="n">
-        <v>612.2013162749022</v>
+        <v>612.2013162749024</v>
       </c>
       <c r="E38" t="n">
-        <v>479.954886607501</v>
+        <v>479.9548866075011</v>
       </c>
       <c r="F38" t="n">
-        <v>315.6677119114356</v>
+        <v>315.6677119114358</v>
       </c>
       <c r="G38" t="n">
-        <v>135.5955616213834</v>
+        <v>135.5955616213833</v>
       </c>
       <c r="H38" t="n">
         <v>28.17573240056726</v>
@@ -7172,31 +7172,31 @@
         <v>28.17573240056726</v>
       </c>
       <c r="J38" t="n">
-        <v>191.3026106395687</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="K38" t="n">
-        <v>424.2777650760514</v>
+        <v>261.1508868370501</v>
       </c>
       <c r="L38" t="n">
-        <v>472.8417217903936</v>
+        <v>309.7148435513923</v>
       </c>
       <c r="M38" t="n">
-        <v>555.7544405922941</v>
+        <v>630.7769595772925</v>
       </c>
       <c r="N38" t="n">
-        <v>681.8814647726896</v>
+        <v>946.3382540589918</v>
       </c>
       <c r="O38" t="n">
-        <v>956.219362686369</v>
+        <v>1220.676151972671</v>
       </c>
       <c r="P38" t="n">
-        <v>1181.107235383052</v>
+        <v>1240.231285121705</v>
       </c>
       <c r="Q38" t="n">
-        <v>1331.703268597636</v>
+        <v>1390.827318336289</v>
       </c>
       <c r="R38" t="n">
-        <v>1377.653598896912</v>
+        <v>1390.827318336289</v>
       </c>
       <c r="S38" t="n">
         <v>1390.827318336289</v>
@@ -7217,7 +7217,7 @@
         <v>1099.202001180007</v>
       </c>
       <c r="Y38" t="n">
-        <v>956.0397580208747</v>
+        <v>956.0397580208748</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>362.9491265372624</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="C39" t="n">
-        <v>173.5368522702261</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="D39" t="n">
         <v>28.17573240056726</v>
@@ -7254,7 +7254,7 @@
         <v>28.17573240056726</v>
       </c>
       <c r="K39" t="n">
-        <v>67.14814918912153</v>
+        <v>67.14814918912151</v>
       </c>
       <c r="L39" t="n">
         <v>185.8379153908916</v>
@@ -7272,31 +7272,31 @@
         <v>793.6343706203811</v>
       </c>
       <c r="Q39" t="n">
-        <v>793.6343706203811</v>
+        <v>787.5094133372642</v>
       </c>
       <c r="R39" t="n">
-        <v>793.6343706203811</v>
+        <v>780.2779129180219</v>
       </c>
       <c r="S39" t="n">
-        <v>793.6343706203811</v>
+        <v>780.2779129180219</v>
       </c>
       <c r="T39" t="n">
-        <v>793.6343706203811</v>
+        <v>780.2779129180219</v>
       </c>
       <c r="U39" t="n">
-        <v>793.6343706203811</v>
+        <v>540.6540197666418</v>
       </c>
       <c r="V39" t="n">
-        <v>793.5394471612969</v>
+        <v>297.5743016702759</v>
       </c>
       <c r="W39" t="n">
-        <v>767.1256725288699</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="X39" t="n">
-        <v>767.1256725288699</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="Y39" t="n">
-        <v>541.4849794641975</v>
+        <v>28.17573240056726</v>
       </c>
     </row>
     <row r="40">
@@ -7315,25 +7315,25 @@
         <v>28.17573240056726</v>
       </c>
       <c r="E40" t="n">
-        <v>126.0657498244643</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="F40" t="n">
-        <v>131.6213389844607</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="G40" t="n">
-        <v>131.6213389844607</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="H40" t="n">
-        <v>131.6213389844607</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="I40" t="n">
-        <v>131.6213389844607</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="J40" t="n">
-        <v>131.6213389844607</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="K40" t="n">
-        <v>131.6213389844607</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="L40" t="n">
         <v>131.6213389844607</v>
@@ -7363,10 +7363,10 @@
         <v>131.6213389844607</v>
       </c>
       <c r="U40" t="n">
-        <v>83.03414542275662</v>
+        <v>83.03414542275657</v>
       </c>
       <c r="V40" t="n">
-        <v>78.43407623736165</v>
+        <v>78.43407623736162</v>
       </c>
       <c r="W40" t="n">
         <v>28.17573240056726</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>821.1586532866069</v>
+        <v>821.1586532866072</v>
       </c>
       <c r="C41" t="n">
-        <v>710.4005212762331</v>
+        <v>710.4005212762335</v>
       </c>
       <c r="D41" t="n">
-        <v>612.2013162749015</v>
+        <v>612.201316274902</v>
       </c>
       <c r="E41" t="n">
-        <v>479.9548866075002</v>
+        <v>479.9548866075006</v>
       </c>
       <c r="F41" t="n">
-        <v>315.6677119114352</v>
+        <v>315.6677119114354</v>
       </c>
       <c r="G41" t="n">
-        <v>135.5955616213834</v>
+        <v>135.5955616213833</v>
       </c>
       <c r="H41" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="I41" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="J41" t="n">
         <v>191.3026106395687</v>
       </c>
       <c r="K41" t="n">
-        <v>424.2777650760514</v>
+        <v>191.3026106395687</v>
       </c>
       <c r="L41" t="n">
-        <v>472.8417217903936</v>
+        <v>239.8665673539109</v>
       </c>
       <c r="M41" t="n">
-        <v>555.7544405922941</v>
+        <v>560.9286833798111</v>
       </c>
       <c r="N41" t="n">
-        <v>681.8814647726894</v>
+        <v>876.4899778615104</v>
       </c>
       <c r="O41" t="n">
-        <v>956.2193626863688</v>
+        <v>974.1786643784415</v>
       </c>
       <c r="P41" t="n">
-        <v>1181.107235383051</v>
+        <v>1199.066537075124</v>
       </c>
       <c r="Q41" t="n">
-        <v>1331.703268597635</v>
+        <v>1349.662570289708</v>
       </c>
       <c r="R41" t="n">
-        <v>1377.653598896911</v>
+        <v>1395.612900588984</v>
       </c>
       <c r="S41" t="n">
-        <v>1390.827318336289</v>
+        <v>1408.786620028362</v>
       </c>
       <c r="T41" t="n">
-        <v>1408.786620028363</v>
+        <v>1408.786620028362</v>
       </c>
       <c r="U41" t="n">
         <v>1399.095053358692</v>
       </c>
       <c r="V41" t="n">
-        <v>1317.958854451375</v>
+        <v>1317.958854451376</v>
       </c>
       <c r="W41" t="n">
-        <v>1219.63408966869</v>
+        <v>1219.634089668691</v>
       </c>
       <c r="X41" t="n">
-        <v>1099.202001180006</v>
+        <v>1099.202001180007</v>
       </c>
       <c r="Y41" t="n">
-        <v>956.0397580208739</v>
+        <v>956.0397580208743</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.17573240056726</v>
+        <v>217.5880066676035</v>
       </c>
       <c r="C42" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="D42" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="E42" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="F42" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="G42" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="H42" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="I42" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="J42" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="K42" t="n">
         <v>67.14814918912151</v>
@@ -7509,31 +7509,31 @@
         <v>793.6343706203811</v>
       </c>
       <c r="Q42" t="n">
-        <v>787.5094133372642</v>
+        <v>793.6343706203811</v>
       </c>
       <c r="R42" t="n">
-        <v>787.5094133372642</v>
+        <v>793.6343706203811</v>
       </c>
       <c r="S42" t="n">
-        <v>787.5094133372642</v>
+        <v>793.6343706203811</v>
       </c>
       <c r="T42" t="n">
-        <v>787.5094133372642</v>
+        <v>576.5177231793828</v>
       </c>
       <c r="U42" t="n">
-        <v>760.1620141499454</v>
+        <v>463.6046991424183</v>
       </c>
       <c r="V42" t="n">
-        <v>517.0822960535795</v>
+        <v>463.5097756833341</v>
       </c>
       <c r="W42" t="n">
-        <v>247.6837267838709</v>
+        <v>437.0960010509071</v>
       </c>
       <c r="X42" t="n">
-        <v>28.17573240056726</v>
+        <v>217.5880066676035</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.17573240056726</v>
+        <v>217.5880066676035</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51.35526953854031</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="C43" t="n">
-        <v>51.35526953854031</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="D43" t="n">
-        <v>51.35526953854031</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="E43" t="n">
-        <v>51.35526953854031</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="F43" t="n">
-        <v>51.35526953854031</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="G43" t="n">
-        <v>51.35526953854031</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="H43" t="n">
-        <v>125.3850927882106</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="I43" t="n">
-        <v>125.3850927882106</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="J43" t="n">
-        <v>125.3850927882106</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="K43" t="n">
-        <v>125.3850927882106</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="L43" t="n">
-        <v>125.3850927882106</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="M43" t="n">
-        <v>125.3850927882106</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="N43" t="n">
         <v>131.6213389844607</v>
@@ -7600,19 +7600,19 @@
         <v>131.6213389844607</v>
       </c>
       <c r="U43" t="n">
-        <v>83.03414542275662</v>
+        <v>83.03414542275655</v>
       </c>
       <c r="V43" t="n">
-        <v>78.43407623736165</v>
+        <v>78.43407623736161</v>
       </c>
       <c r="W43" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="X43" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="Y43" t="n">
-        <v>51.35526953854031</v>
+        <v>28.17573240056725</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>821.1586532866074</v>
+        <v>821.158653286608</v>
       </c>
       <c r="C44" t="n">
-        <v>710.4005212762338</v>
+        <v>710.4005212762345</v>
       </c>
       <c r="D44" t="n">
-        <v>612.201316274902</v>
+        <v>612.2013162749026</v>
       </c>
       <c r="E44" t="n">
-        <v>479.9548866075004</v>
+        <v>479.9548866075011</v>
       </c>
       <c r="F44" t="n">
-        <v>315.6677119114352</v>
+        <v>315.6677119114358</v>
       </c>
       <c r="G44" t="n">
-        <v>135.5955616213834</v>
+        <v>135.5955616213833</v>
       </c>
       <c r="H44" t="n">
         <v>28.17573240056726</v>
@@ -7649,28 +7649,28 @@
         <v>191.3026106395687</v>
       </c>
       <c r="K44" t="n">
-        <v>234.8434947747471</v>
+        <v>398.6132474287091</v>
       </c>
       <c r="L44" t="n">
-        <v>521.5568487130892</v>
+        <v>447.1772041430514</v>
       </c>
       <c r="M44" t="n">
-        <v>604.4695675149896</v>
+        <v>530.0899229449518</v>
       </c>
       <c r="N44" t="n">
-        <v>681.8814647726892</v>
+        <v>845.6512174266511</v>
       </c>
       <c r="O44" t="n">
-        <v>956.2193626863686</v>
+        <v>1119.98911534033</v>
       </c>
       <c r="P44" t="n">
-        <v>1181.107235383051</v>
+        <v>1344.876988037013</v>
       </c>
       <c r="Q44" t="n">
-        <v>1331.703268597635</v>
+        <v>1344.876988037013</v>
       </c>
       <c r="R44" t="n">
-        <v>1377.653598896911</v>
+        <v>1390.827318336289</v>
       </c>
       <c r="S44" t="n">
         <v>1390.827318336289</v>
@@ -7679,19 +7679,19 @@
         <v>1408.786620028363</v>
       </c>
       <c r="U44" t="n">
-        <v>1399.095053358692</v>
+        <v>1399.095053358693</v>
       </c>
       <c r="V44" t="n">
         <v>1317.958854451376</v>
       </c>
       <c r="W44" t="n">
-        <v>1219.634089668691</v>
+        <v>1219.634089668692</v>
       </c>
       <c r="X44" t="n">
-        <v>1099.202001180007</v>
+        <v>1099.202001180008</v>
       </c>
       <c r="Y44" t="n">
-        <v>956.0397580208746</v>
+        <v>956.0397580208751</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>712.3590430679133</v>
+        <v>217.5880066676035</v>
       </c>
       <c r="C45" t="n">
-        <v>522.946768800877</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="D45" t="n">
-        <v>362.1666525619087</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="E45" t="n">
-        <v>188.6034486833232</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="F45" t="n">
         <v>28.17573240056726</v>
@@ -7728,49 +7728,49 @@
         <v>28.17573240056726</v>
       </c>
       <c r="K45" t="n">
-        <v>67.14814918912154</v>
+        <v>67.14814918912153</v>
       </c>
       <c r="L45" t="n">
-        <v>185.8379153908917</v>
+        <v>185.8379153908916</v>
       </c>
       <c r="M45" t="n">
-        <v>369.0979385312083</v>
+        <v>369.0979385312082</v>
       </c>
       <c r="N45" t="n">
-        <v>575.628198743711</v>
+        <v>575.6281987437109</v>
       </c>
       <c r="O45" t="n">
-        <v>708.8159555163766</v>
+        <v>708.8159555163764</v>
       </c>
       <c r="P45" t="n">
-        <v>793.6343706203812</v>
+        <v>793.6343706203811</v>
       </c>
       <c r="Q45" t="n">
-        <v>787.5094133372643</v>
+        <v>793.6343706203811</v>
       </c>
       <c r="R45" t="n">
-        <v>787.5094133372643</v>
+        <v>793.6343706203811</v>
       </c>
       <c r="S45" t="n">
-        <v>787.5094133372643</v>
+        <v>600.2267496365116</v>
       </c>
       <c r="T45" t="n">
-        <v>787.5094133372643</v>
+        <v>600.2267496365116</v>
       </c>
       <c r="U45" t="n">
-        <v>787.5094133372643</v>
+        <v>360.6028564851315</v>
       </c>
       <c r="V45" t="n">
-        <v>787.4144898781801</v>
+        <v>360.5079330260473</v>
       </c>
       <c r="W45" t="n">
-        <v>761.0007152457531</v>
+        <v>334.0941583936204</v>
       </c>
       <c r="X45" t="n">
-        <v>761.0007152457531</v>
+        <v>217.5880066676035</v>
       </c>
       <c r="Y45" t="n">
-        <v>761.0007152457531</v>
+        <v>217.5880066676035</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.17573240056726</v>
+        <v>37.20276550866447</v>
       </c>
       <c r="C46" t="n">
-        <v>28.17573240056726</v>
+        <v>37.20276550866447</v>
       </c>
       <c r="D46" t="n">
-        <v>28.17573240056726</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="E46" t="n">
-        <v>28.17573240056726</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="F46" t="n">
-        <v>128.7875162283049</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="G46" t="n">
         <v>131.6213389844607</v>
@@ -7837,19 +7837,19 @@
         <v>131.6213389844607</v>
       </c>
       <c r="U46" t="n">
-        <v>83.03414542275662</v>
+        <v>83.03414542275657</v>
       </c>
       <c r="V46" t="n">
-        <v>78.43407623736165</v>
+        <v>78.43407623736162</v>
       </c>
       <c r="W46" t="n">
         <v>28.17573240056726</v>
       </c>
       <c r="X46" t="n">
-        <v>28.17573240056726</v>
+        <v>37.20276550866447</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.17573240056726</v>
+        <v>37.20276550866447</v>
       </c>
     </row>
   </sheetData>
@@ -8769,22 +8769,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>132.0073960199547</v>
       </c>
       <c r="L12" t="n">
-        <v>219.3557975125984</v>
+        <v>219.3557975125985</v>
       </c>
       <c r="M12" t="n">
-        <v>116.6657468248316</v>
+        <v>215.6056533098493</v>
       </c>
       <c r="N12" t="n">
-        <v>170.8384307724737</v>
+        <v>200.937340602567</v>
       </c>
       <c r="O12" t="n">
-        <v>219.6296017271811</v>
+        <v>215.6320297479886</v>
       </c>
       <c r="P12" t="n">
-        <v>206.3638740786793</v>
+        <v>120.6887073069574</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9009,16 +9009,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>219.3557975125984</v>
+        <v>120.4158910275808</v>
       </c>
       <c r="M15" t="n">
-        <v>215.6056533098492</v>
+        <v>215.6056533098493</v>
       </c>
       <c r="N15" t="n">
-        <v>170.8384307724737</v>
+        <v>170.8384307724739</v>
       </c>
       <c r="O15" t="n">
-        <v>120.6896952421636</v>
+        <v>219.6296017271812</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>132.0073960199547</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>219.3557975125984</v>
+        <v>219.3557975125985</v>
       </c>
       <c r="M18" t="n">
-        <v>211.6080813306566</v>
+        <v>215.6056533098493</v>
       </c>
       <c r="N18" t="n">
-        <v>200.9373406025668</v>
+        <v>170.8384307724739</v>
       </c>
       <c r="O18" t="n">
-        <v>219.6296017271811</v>
+        <v>120.6896952421636</v>
       </c>
       <c r="P18" t="n">
-        <v>120.6887073069574</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9480,22 +9480,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>132.0073960199547</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>219.3557975125984</v>
+        <v>189.2568876825054</v>
       </c>
       <c r="M21" t="n">
-        <v>215.6056533098492</v>
+        <v>215.6056533098493</v>
       </c>
       <c r="N21" t="n">
-        <v>196.9397686233742</v>
+        <v>200.937340602567</v>
       </c>
       <c r="O21" t="n">
-        <v>219.6296017271811</v>
+        <v>120.6896952421636</v>
       </c>
       <c r="P21" t="n">
-        <v>120.6887073069574</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9720,19 +9720,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>219.3557975125982</v>
+        <v>219.3557975125985</v>
       </c>
       <c r="M24" t="n">
-        <v>215.605653309849</v>
+        <v>215.6056533098494</v>
       </c>
       <c r="N24" t="n">
-        <v>170.8384307724733</v>
+        <v>101.9974341175493</v>
       </c>
       <c r="O24" t="n">
-        <v>120.6896952421636</v>
+        <v>219.6296017271813</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>176.2649642485863</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>173.7313831925514</v>
+        <v>74.7914767075338</v>
       </c>
       <c r="C11" t="n">
-        <v>149.8496401958969</v>
+        <v>149.849640195897</v>
       </c>
       <c r="D11" t="n">
-        <v>137.4163024569453</v>
+        <v>137.4163024569454</v>
       </c>
       <c r="E11" t="n">
-        <v>171.1230548763542</v>
+        <v>171.1230548763543</v>
       </c>
       <c r="F11" t="n">
-        <v>202.8433924547315</v>
+        <v>202.8433924547316</v>
       </c>
       <c r="G11" t="n">
-        <v>198.4156403595266</v>
+        <v>119.5306118077613</v>
       </c>
       <c r="H11" t="n">
-        <v>47.60481394921734</v>
+        <v>59.39845080223147</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>40.19908950562706</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>26.89230219312421</v>
       </c>
       <c r="T11" t="n">
-        <v>22.05838072575468</v>
+        <v>22.05838072575477</v>
       </c>
       <c r="U11" t="n">
-        <v>49.79374050860079</v>
+        <v>49.79374050860088</v>
       </c>
       <c r="V11" t="n">
-        <v>120.5239264238701</v>
+        <v>120.5239264238702</v>
       </c>
       <c r="W11" t="n">
         <v>137.540606640485</v>
       </c>
       <c r="X11" t="n">
-        <v>60.48695062440663</v>
+        <v>159.4268571094243</v>
       </c>
       <c r="Y11" t="n">
-        <v>82.98980374815039</v>
+        <v>82.98980374815036</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>173.7313831925513</v>
+        <v>173.7313831925515</v>
       </c>
       <c r="C14" t="n">
-        <v>149.8496401958968</v>
+        <v>149.849640195897</v>
       </c>
       <c r="D14" t="n">
-        <v>38.47639597192773</v>
+        <v>137.4163024569455</v>
       </c>
       <c r="E14" t="n">
-        <v>171.1230548763542</v>
+        <v>171.1230548763543</v>
       </c>
       <c r="F14" t="n">
-        <v>202.8433924547315</v>
+        <v>202.8433924547317</v>
       </c>
       <c r="G14" t="n">
-        <v>218.4705182927788</v>
+        <v>119.5306118077613</v>
       </c>
       <c r="H14" t="n">
-        <v>146.5447204342348</v>
+        <v>47.60481394921734</v>
       </c>
       <c r="I14" t="n">
-        <v>40.19908950562689</v>
+        <v>40.19908950562708</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.89230219312407</v>
+        <v>26.89230219312424</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>22.05838072575479</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>105.229778026222</v>
+        <v>83.17139730046756</v>
       </c>
       <c r="W14" t="n">
-        <v>38.60070015546734</v>
+        <v>137.5406066404851</v>
       </c>
       <c r="X14" t="n">
-        <v>60.48695062440657</v>
+        <v>159.4268571094243</v>
       </c>
       <c r="Y14" t="n">
-        <v>181.9297102331679</v>
+        <v>82.98980374815039</v>
       </c>
     </row>
     <row r="15">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.411018297739646e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44096.59975882299</v>
+        <v>44096.59975882298</v>
       </c>
       <c r="C2" t="n">
         <v>44096.59975882297</v>
       </c>
       <c r="D2" t="n">
-        <v>44096.59975882297</v>
+        <v>44096.59975882299</v>
       </c>
       <c r="E2" t="n">
         <v>37999.50445102399</v>
       </c>
       <c r="F2" t="n">
-        <v>37999.504451024</v>
+        <v>37999.50445102401</v>
       </c>
       <c r="G2" t="n">
+        <v>44185.92744292679</v>
+      </c>
+      <c r="H2" t="n">
         <v>44185.9274429268</v>
       </c>
-      <c r="H2" t="n">
-        <v>44185.92744292678</v>
-      </c>
       <c r="I2" t="n">
+        <v>44185.92744292681</v>
+      </c>
+      <c r="J2" t="n">
         <v>44185.9274429268</v>
       </c>
-      <c r="J2" t="n">
-        <v>44185.92744292685</v>
-      </c>
       <c r="K2" t="n">
-        <v>44185.92744292682</v>
+        <v>44185.92744292683</v>
       </c>
       <c r="L2" t="n">
-        <v>44185.92744292684</v>
+        <v>44185.92744292683</v>
       </c>
       <c r="M2" t="n">
         <v>44185.92744292686</v>
       </c>
       <c r="N2" t="n">
+        <v>44185.92744292684</v>
+      </c>
+      <c r="O2" t="n">
         <v>44185.92744292683</v>
       </c>
-      <c r="O2" t="n">
-        <v>44185.92744292685</v>
-      </c>
       <c r="P2" t="n">
-        <v>44185.92744292684</v>
+        <v>44185.92744292682</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>273465.0445868052</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>103592.8157439611</v>
+        <v>103592.8157439612</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>103592.8157439612</v>
       </c>
       <c r="M3" t="n">
-        <v>22155.3858762363</v>
+        <v>22155.38587623632</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,22 +26427,22 @@
         <v>361182.2424006842</v>
       </c>
       <c r="F4" t="n">
-        <v>361182.2424006843</v>
+        <v>361182.2424006842</v>
       </c>
       <c r="G4" t="n">
-        <v>431700.8089139007</v>
+        <v>431700.8089139006</v>
       </c>
       <c r="H4" t="n">
-        <v>431700.8089139007</v>
+        <v>431700.8089139006</v>
       </c>
       <c r="I4" t="n">
-        <v>431700.8089139007</v>
+        <v>431700.8089139006</v>
       </c>
       <c r="J4" t="n">
+        <v>430647.4817506725</v>
+      </c>
+      <c r="K4" t="n">
         <v>430647.4817506726</v>
-      </c>
-      <c r="K4" t="n">
-        <v>430647.4817506725</v>
       </c>
       <c r="L4" t="n">
         <v>430647.4817506726</v>
@@ -26479,19 +26479,19 @@
         <v>25128.77385439976</v>
       </c>
       <c r="F5" t="n">
-        <v>25128.77385439977</v>
+        <v>25128.77385439976</v>
       </c>
       <c r="G5" t="n">
+        <v>36014.9543878736</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36014.9543878736</v>
+      </c>
+      <c r="I5" t="n">
         <v>36014.95438787361</v>
       </c>
-      <c r="H5" t="n">
-        <v>36014.95438787361</v>
-      </c>
-      <c r="I5" t="n">
-        <v>36014.95438787359</v>
-      </c>
       <c r="J5" t="n">
-        <v>47593.60131544279</v>
+        <v>47593.60131544281</v>
       </c>
       <c r="K5" t="n">
         <v>47593.60131544279</v>
@@ -26506,10 +26506,10 @@
         <v>43906.28142019037</v>
       </c>
       <c r="O5" t="n">
-        <v>43906.28142019036</v>
+        <v>43906.28142019035</v>
       </c>
       <c r="P5" t="n">
-        <v>43906.28142019036</v>
+        <v>43906.28142019037</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-456784.6575442122</v>
+        <v>-456789.1239284175</v>
       </c>
       <c r="C6" t="n">
-        <v>-456784.6575442123</v>
+        <v>-456789.1239284175</v>
       </c>
       <c r="D6" t="n">
-        <v>-456784.6575442123</v>
+        <v>-456789.1239284175</v>
       </c>
       <c r="E6" t="n">
-        <v>-621776.5563908652</v>
+        <v>-622085.8775404603</v>
       </c>
       <c r="F6" t="n">
-        <v>-348311.5118040601</v>
+        <v>-348620.832953655</v>
       </c>
       <c r="G6" t="n">
-        <v>-527122.6516028087</v>
+        <v>-527122.6516028086</v>
       </c>
       <c r="H6" t="n">
-        <v>-423529.8358588475</v>
+        <v>-423529.8358588474</v>
       </c>
       <c r="I6" t="n">
-        <v>-423529.8358588475</v>
+        <v>-423529.8358588474</v>
       </c>
       <c r="J6" t="n">
-        <v>-592901.0529583935</v>
+        <v>-592901.0529583934</v>
       </c>
       <c r="K6" t="n">
-        <v>-434055.1556231885</v>
+        <v>-434055.1556231886</v>
       </c>
       <c r="L6" t="n">
         <v>-537647.9713671497</v>
@@ -26561,7 +26561,7 @@
         <v>-496621.7512445789</v>
       </c>
       <c r="P6" t="n">
-        <v>-429925.9955120494</v>
+        <v>-429925.9955120495</v>
       </c>
     </row>
   </sheetData>
@@ -26692,25 +26692,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="F2" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="G2" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="H2" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="I2" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="J2" t="n">
+        <v>212.8607143456134</v>
+      </c>
+      <c r="K2" t="n">
         <v>212.8607143456135</v>
-      </c>
-      <c r="K2" t="n">
-        <v>212.8607143456134</v>
       </c>
       <c r="L2" t="n">
         <v>212.8607143456135</v>
@@ -26777,7 +26777,7 @@
         <v>104.1060083670288</v>
       </c>
       <c r="P3" t="n">
-        <v>104.1060083670289</v>
+        <v>104.1060083670288</v>
       </c>
     </row>
     <row r="4">
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>98.93990648501756</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="F4" t="n">
-        <v>98.93990648501756</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="G4" t="n">
-        <v>98.93990648501756</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="H4" t="n">
-        <v>98.93990648501756</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="I4" t="n">
-        <v>98.93990648501739</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="J4" t="n">
-        <v>451.1365614921083</v>
+        <v>451.1365614921087</v>
       </c>
       <c r="K4" t="n">
         <v>451.1365614921083</v>
@@ -26826,7 +26826,7 @@
         <v>352.1966550070907</v>
       </c>
       <c r="O4" t="n">
-        <v>352.1966550070907</v>
+        <v>352.1966550070906</v>
       </c>
       <c r="P4" t="n">
         <v>352.1966550070907</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>129.4910196799514</v>
+        <v>129.4910196799515</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>129.4910196799515</v>
       </c>
       <c r="M2" t="n">
-        <v>27.69423234529538</v>
+        <v>27.6942323452954</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>98.93990648501756</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>129.4910196799514</v>
+        <v>129.4910196799515</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>98.93990648501756</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="C11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="D11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="E11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="F11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="G11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="H11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="I11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="J11" t="n">
-        <v>174.7202286920867</v>
+        <v>75.78032220706909</v>
       </c>
       <c r="K11" t="n">
-        <v>5.226507866178835</v>
+        <v>104.1664143511965</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28129,34 +28129,34 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.39547932052235</v>
+        <v>58.66502733817889</v>
       </c>
       <c r="Q11" t="n">
-        <v>127.4919038971617</v>
+        <v>88.43774142365241</v>
       </c>
       <c r="R11" t="n">
-        <v>200.3558571852819</v>
+        <v>194.140471641135</v>
       </c>
       <c r="S11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="T11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="U11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="V11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="W11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="X11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="Y11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
     </row>
     <row r="12">
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.81058791264817</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>168.7125832237197</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.3278900205298</v>
+        <v>35.38798353551208</v>
       </c>
       <c r="S12" t="n">
-        <v>186.511344559225</v>
+        <v>191.4735447740308</v>
       </c>
       <c r="T12" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="U12" t="n">
-        <v>200.3558571852819</v>
+        <v>138.2877477348486</v>
       </c>
       <c r="V12" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="W12" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="X12" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="Y12" t="n">
-        <v>124.4443796490081</v>
+        <v>200.3558571852818</v>
       </c>
     </row>
     <row r="13">
@@ -28245,10 +28245,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>200.3558571852819</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="D13" t="n">
         <v>145.1826502507107</v>
@@ -28260,22 +28260,22 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6954829817093</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="H13" t="n">
-        <v>165.7773474488177</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="I13" t="n">
         <v>164.6938248359117</v>
       </c>
       <c r="J13" t="n">
-        <v>119.8654670400798</v>
+        <v>176.3220553723089</v>
       </c>
       <c r="K13" t="n">
-        <v>165.3550587809059</v>
+        <v>66.41515229588833</v>
       </c>
       <c r="L13" t="n">
-        <v>32.3816775535042</v>
+        <v>31.3650482865705</v>
       </c>
       <c r="M13" t="n">
         <v>24.38732889638561</v>
@@ -28284,37 +28284,37 @@
         <v>15.71034539069789</v>
       </c>
       <c r="O13" t="n">
-        <v>135.6707980487056</v>
+        <v>36.73089156368807</v>
       </c>
       <c r="P13" t="n">
-        <v>57.83856215319996</v>
+        <v>156.7784686382176</v>
       </c>
       <c r="Q13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="R13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="S13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="T13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="U13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="V13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="W13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="X13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="Y13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
     </row>
     <row r="14">
@@ -28324,40 +28324,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="C14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="D14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="E14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="F14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="G14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="H14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="I14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="J14" t="n">
-        <v>114.8344846805783</v>
+        <v>154.9146864833874</v>
       </c>
       <c r="K14" t="n">
         <v>5.226507866178835</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>49.88540475335887</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>15.18968547299701</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28369,31 +28369,31 @@
         <v>13.39547932052235</v>
       </c>
       <c r="Q14" t="n">
-        <v>187.37764790867</v>
+        <v>88.43774142365241</v>
       </c>
       <c r="R14" t="n">
-        <v>200.355857185282</v>
+        <v>194.140471641135</v>
       </c>
       <c r="S14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="T14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="U14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="V14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="W14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="X14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="Y14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
     </row>
     <row r="15">
@@ -28427,7 +28427,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.87880489469023</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.063707710285797</v>
       </c>
       <c r="R15" t="n">
         <v>134.3278900205298</v>
       </c>
       <c r="S15" t="n">
-        <v>122.1856081875208</v>
+        <v>92.53363828901317</v>
       </c>
       <c r="T15" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="U15" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="V15" t="n">
-        <v>141.7090144303847</v>
+        <v>189.3299492601906</v>
       </c>
       <c r="W15" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="X15" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="Y15" t="n">
-        <v>200.355857185282</v>
+        <v>124.4443796490079</v>
       </c>
     </row>
     <row r="16">
@@ -28485,13 +28485,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="D16" t="n">
-        <v>200.355857185282</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>200.355857185282</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
@@ -28506,52 +28506,52 @@
         <v>164.6938248359117</v>
       </c>
       <c r="J16" t="n">
-        <v>119.8654670400798</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="K16" t="n">
-        <v>109.1563778738342</v>
+        <v>165.355058780906</v>
       </c>
       <c r="L16" t="n">
         <v>31.3650482865705</v>
       </c>
       <c r="M16" t="n">
-        <v>24.38732889638561</v>
+        <v>123.3272353814033</v>
       </c>
       <c r="N16" t="n">
-        <v>15.71034539069789</v>
+        <v>32.55752052230643</v>
       </c>
       <c r="O16" t="n">
         <v>36.73089156368807</v>
       </c>
       <c r="P16" t="n">
-        <v>156.7784686382175</v>
+        <v>57.83856215319996</v>
       </c>
       <c r="Q16" t="n">
-        <v>200.355857185282</v>
+        <v>126.7738576957196</v>
       </c>
       <c r="R16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="S16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="T16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="U16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="V16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="W16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="X16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="Y16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
     </row>
     <row r="17">
@@ -28561,34 +28561,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="C17" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="D17" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="E17" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="F17" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="G17" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="H17" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="I17" t="n">
-        <v>329.8468768652334</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="J17" t="n">
         <v>75.78032220706909</v>
       </c>
       <c r="K17" t="n">
-        <v>5.226507866178835</v>
+        <v>104.1664143511965</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,7 +28603,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.39547932052235</v>
+        <v>58.66502733817889</v>
       </c>
       <c r="Q17" t="n">
         <v>88.43774142365241</v>
@@ -28618,19 +28618,19 @@
         <v>222.4142379110366</v>
       </c>
       <c r="U17" t="n">
-        <v>296.1000287661506</v>
+        <v>250.1495976938827</v>
       </c>
       <c r="V17" t="n">
-        <v>329.8468768652334</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="X17" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="Y17" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
     </row>
     <row r="18">
@@ -28643,7 +28643,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>88.57824503934836</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -28652,7 +28652,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>59.88353263491067</v>
       </c>
       <c r="G18" t="n">
         <v>148.7382922638873</v>
@@ -28661,10 +28661,10 @@
         <v>125.6745619188949</v>
       </c>
       <c r="I18" t="n">
-        <v>8.206175550612841</v>
+        <v>107.1460820356304</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.87880489469023</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,16 +28685,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.063707710285797</v>
       </c>
       <c r="R18" t="n">
-        <v>134.3278900205298</v>
+        <v>35.38798353551209</v>
       </c>
       <c r="S18" t="n">
-        <v>92.53363828901328</v>
+        <v>191.4735447740308</v>
       </c>
       <c r="T18" t="n">
-        <v>185.7417239395609</v>
+        <v>214.9454809665883</v>
       </c>
       <c r="U18" t="n">
         <v>237.2276542198663</v>
@@ -28706,10 +28706,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>118.3730079544529</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>136.2380165020221</v>
       </c>
     </row>
     <row r="19">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="C20" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="D20" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="E20" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="F20" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="G20" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="H20" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="I20" t="n">
-        <v>240.5549466909089</v>
+        <v>265.0784238373857</v>
       </c>
       <c r="J20" t="n">
         <v>75.78032220706909</v>
@@ -28834,7 +28834,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>20.74607087117981</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -28843,7 +28843,7 @@
         <v>13.39547932052235</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.43774142365241</v>
+        <v>187.3776479086701</v>
       </c>
       <c r="R20" t="n">
         <v>194.140471641135</v>
@@ -28852,22 +28852,22 @@
         <v>227.2481593784061</v>
       </c>
       <c r="T20" t="n">
-        <v>277.9593199862783</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U20" t="n">
-        <v>329.8468768652334</v>
+        <v>250.1495976938827</v>
       </c>
       <c r="V20" t="n">
-        <v>329.8468768652334</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="X20" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="Y20" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
     </row>
     <row r="21">
@@ -28877,31 +28877,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>77.81058791264806</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>60.23240859156098</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>129.6196820929009</v>
+        <v>59.88353263491067</v>
       </c>
       <c r="G21" t="n">
         <v>148.7382922638873</v>
       </c>
       <c r="H21" t="n">
-        <v>26.73465543387734</v>
+        <v>125.6745619188949</v>
       </c>
       <c r="I21" t="n">
-        <v>8.206175550612837</v>
+        <v>107.1460820356304</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.87880489469023</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,13 +28922,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.063707710285797</v>
       </c>
       <c r="R21" t="n">
         <v>134.3278900205298</v>
       </c>
       <c r="S21" t="n">
-        <v>191.4735447740308</v>
+        <v>104.3272751420273</v>
       </c>
       <c r="T21" t="n">
         <v>214.9454809665883</v>
@@ -28943,7 +28943,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>118.3730079544529</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="C23" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="D23" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="E23" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="F23" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="G23" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="H23" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="I23" t="n">
         <v>240.5549466909089</v>
@@ -29068,7 +29068,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>15.18968547299707</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>88.43774142365241</v>
       </c>
       <c r="R23" t="n">
-        <v>249.685553716376</v>
+        <v>194.140471641135</v>
       </c>
       <c r="S23" t="n">
-        <v>227.2481593784061</v>
+        <v>326.1880658634238</v>
       </c>
       <c r="T23" t="n">
         <v>222.4142379110366</v>
       </c>
       <c r="U23" t="n">
-        <v>329.8468768652334</v>
+        <v>280.2294602385424</v>
       </c>
       <c r="V23" t="n">
-        <v>329.8468768652334</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="X23" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="Y23" t="n">
-        <v>329.8468768652334</v>
+        <v>329.8468768652333</v>
       </c>
     </row>
     <row r="24">
@@ -29117,19 +29117,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>88.57824503934819</v>
       </c>
       <c r="D24" t="n">
-        <v>129.9685580495512</v>
+        <v>60.23240859156081</v>
       </c>
       <c r="E24" t="n">
-        <v>72.88766535478229</v>
+        <v>72.88766535478194</v>
       </c>
       <c r="F24" t="n">
-        <v>59.88353263491095</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>49.7983857788699</v>
+        <v>148.7382922638873</v>
       </c>
       <c r="H24" t="n">
         <v>125.6745619188949</v>
@@ -29138,7 +29138,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.87880489469023</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.063707710285797</v>
       </c>
       <c r="R24" t="n">
         <v>134.3278900205298</v>
@@ -29183,7 +29183,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>136.238016502022</v>
       </c>
     </row>
     <row r="25">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="C26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="D26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="E26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="F26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="G26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="H26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="I26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8607143456126</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="R26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="S26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="T26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="U26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="V26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="W26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="X26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
     </row>
     <row r="27">
@@ -29351,16 +29351,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>66.5877428897638</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.063707710285797</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3278900205298</v>
+        <v>112.8229725771909</v>
       </c>
       <c r="S27" t="n">
         <v>191.4735447740308</v>
       </c>
       <c r="T27" t="n">
-        <v>212.8607143456135</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>212.8607143456135</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="W27" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="X27" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
     </row>
     <row r="28">
@@ -29448,22 +29448,22 @@
         <v>168.6954829817093</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7773474488177</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="I28" t="n">
-        <v>164.6938248359117</v>
+        <v>173.025807076773</v>
       </c>
       <c r="J28" t="n">
         <v>119.8654670400798</v>
       </c>
       <c r="K28" t="n">
-        <v>212.8607143456135</v>
+        <v>66.41515229588833</v>
       </c>
       <c r="L28" t="n">
-        <v>31.3650482865705</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="M28" t="n">
-        <v>114.8527820433603</v>
+        <v>24.38732889638561</v>
       </c>
       <c r="N28" t="n">
         <v>15.71034539069789</v>
@@ -29481,25 +29481,25 @@
         <v>203.1920160450731</v>
       </c>
       <c r="S28" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="T28" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="U28" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="V28" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="W28" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="X28" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="C29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="D29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="E29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="F29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="G29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="H29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="I29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="J29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="K29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="L29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="M29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="O29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="P29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="S29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="T29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="30">
@@ -29588,19 +29588,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7382922638873</v>
@@ -29609,7 +29609,7 @@
         <v>125.6745619188949</v>
       </c>
       <c r="I30" t="n">
-        <v>3.258052918819246</v>
+        <v>107.1460820356304</v>
       </c>
       <c r="J30" t="n">
         <v>51.87880489469023</v>
@@ -29639,25 +29639,25 @@
         <v>134.3278900205298</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4735447740308</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U30" t="n">
-        <v>212.8607143456134</v>
+        <v>159.2009702039916</v>
       </c>
       <c r="V30" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W30" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X30" t="n">
-        <v>212.8607143456134</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="31">
@@ -29694,7 +29694,7 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K31" t="n">
-        <v>66.41515229588833</v>
+        <v>106.1757985376726</v>
       </c>
       <c r="L31" t="n">
         <v>31.3650482865705</v>
@@ -29703,40 +29703,40 @@
         <v>24.38732889638561</v>
       </c>
       <c r="N31" t="n">
-        <v>15.71034539069789</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="O31" t="n">
         <v>36.73089156368807</v>
       </c>
       <c r="P31" t="n">
-        <v>208.6627207000064</v>
+        <v>57.83856215319996</v>
       </c>
       <c r="Q31" t="n">
-        <v>212.8607143456134</v>
+        <v>126.7738576957196</v>
       </c>
       <c r="R31" t="n">
         <v>203.1920160450731</v>
       </c>
       <c r="S31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="T31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="32">
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>118.1176718278036</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -29834,7 +29834,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -29849,7 +29849,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>51.87880489469023</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.063707710285797</v>
       </c>
       <c r="R33" t="n">
         <v>134.3278900205298</v>
@@ -29879,7 +29879,7 @@
         <v>191.4735447740308</v>
       </c>
       <c r="T33" t="n">
-        <v>212.8607143456135</v>
+        <v>137.3185216765891</v>
       </c>
       <c r="U33" t="n">
         <v>212.8607143456135</v>
@@ -29891,7 +29891,7 @@
         <v>212.8607143456135</v>
       </c>
       <c r="X33" t="n">
-        <v>212.8607143456135</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>212.8607143456135</v>
@@ -29916,25 +29916,25 @@
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>212.8607143456135</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>212.8607143456135</v>
+        <v>168.6954829817093</v>
       </c>
       <c r="H34" t="n">
-        <v>212.8607143456135</v>
+        <v>165.7773474488177</v>
       </c>
       <c r="I34" t="n">
         <v>164.6938248359117</v>
       </c>
       <c r="J34" t="n">
-        <v>191.5940518489126</v>
+        <v>119.8654670400798</v>
       </c>
       <c r="K34" t="n">
-        <v>66.41515229588833</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="L34" t="n">
-        <v>31.3650482865705</v>
+        <v>121.830501433545</v>
       </c>
       <c r="M34" t="n">
         <v>24.38732889638561</v>
@@ -30007,25 +30007,25 @@
         <v>240.5549466909089</v>
       </c>
       <c r="J35" t="n">
+        <v>75.7803222070691</v>
+      </c>
+      <c r="K35" t="n">
         <v>240.5549466909089</v>
-      </c>
-      <c r="K35" t="n">
-        <v>5.226507866178835</v>
       </c>
       <c r="L35" t="n">
         <v>240.5549466909089</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>240.5549466909089</v>
       </c>
-      <c r="N35" t="n">
-        <v>240.5549466909089</v>
-      </c>
-      <c r="O35" t="n">
-        <v>30.5852117251131</v>
-      </c>
       <c r="P35" t="n">
-        <v>13.39547932052235</v>
+        <v>227.2886107081564</v>
       </c>
       <c r="Q35" t="n">
         <v>240.5549466909089</v>
@@ -30034,7 +30034,7 @@
         <v>240.5549466909089</v>
       </c>
       <c r="S35" t="n">
-        <v>240.5549466909089</v>
+        <v>227.2481593784061</v>
       </c>
       <c r="T35" t="n">
         <v>240.5549466909089</v>
@@ -30062,10 +30062,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>96.63977403567723</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30107,19 +30107,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.063707710285801</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>191.4735447740308</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9454809665883</v>
+        <v>95.49553117087356</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2276542198663</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>240.5549466909089</v>
@@ -30128,7 +30128,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30147,7 +30147,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>145.1826502507107</v>
+        <v>177.8136982424136</v>
       </c>
       <c r="E37" t="n">
         <v>141.676141212225</v>
@@ -30156,13 +30156,13 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.6954829817093</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="H37" t="n">
-        <v>194.406737294723</v>
+        <v>165.7773474488177</v>
       </c>
       <c r="I37" t="n">
-        <v>240.5549466909089</v>
+        <v>164.6938248359117</v>
       </c>
       <c r="J37" t="n">
         <v>119.8654670400798</v>
@@ -30171,7 +30171,7 @@
         <v>66.41515229588833</v>
       </c>
       <c r="L37" t="n">
-        <v>31.3650482865705</v>
+        <v>31.36504828657051</v>
       </c>
       <c r="M37" t="n">
         <v>24.38732889638561</v>
@@ -30180,10 +30180,10 @@
         <v>15.71034539069789</v>
       </c>
       <c r="O37" t="n">
-        <v>36.73089156368807</v>
+        <v>36.73089156368808</v>
       </c>
       <c r="P37" t="n">
-        <v>57.83856215319996</v>
+        <v>57.83856215319997</v>
       </c>
       <c r="Q37" t="n">
         <v>126.7738576957196</v>
@@ -30244,7 +30244,7 @@
         <v>240.5549466909089</v>
       </c>
       <c r="J38" t="n">
-        <v>240.5549466909089</v>
+        <v>75.78032220706909</v>
       </c>
       <c r="K38" t="n">
         <v>240.5549466909089</v>
@@ -30253,25 +30253,25 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="N38" t="n">
-        <v>49.20719891181409</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="O38" t="n">
         <v>240.5549466909089</v>
       </c>
       <c r="P38" t="n">
-        <v>240.5549466909089</v>
+        <v>33.1481390670213</v>
       </c>
       <c r="Q38" t="n">
         <v>240.5549466909089</v>
       </c>
       <c r="R38" t="n">
-        <v>240.5549466909089</v>
+        <v>194.140471641135</v>
       </c>
       <c r="S38" t="n">
-        <v>240.5549466909089</v>
+        <v>227.2481593784061</v>
       </c>
       <c r="T38" t="n">
         <v>240.5549466909089</v>
@@ -30299,13 +30299,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>15.26480640561624</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -30344,10 +30344,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.063707710285797</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>134.3278900205298</v>
+        <v>127.1687046054799</v>
       </c>
       <c r="S39" t="n">
         <v>191.4735447740308</v>
@@ -30356,19 +30356,19 @@
         <v>214.9454809665883</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276542198663</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.5549466909089</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>240.5549466909089</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30387,10 +30387,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>240.5549466909089</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>144.5385884406653</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
         <v>168.6954829817093</v>
@@ -30408,7 +30408,7 @@
         <v>66.41515229588833</v>
       </c>
       <c r="L40" t="n">
-        <v>31.3650482865705</v>
+        <v>135.855559987473</v>
       </c>
       <c r="M40" t="n">
         <v>24.38732889638561</v>
@@ -30484,19 +30484,19 @@
         <v>240.5549466909089</v>
       </c>
       <c r="K41" t="n">
+        <v>5.226507866178835</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
         <v>240.5549466909089</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
       <c r="N41" t="n">
-        <v>49.20719891181386</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="O41" t="n">
-        <v>240.5549466909089</v>
+        <v>62.12139982550647</v>
       </c>
       <c r="P41" t="n">
         <v>240.5549466909089</v>
@@ -30511,7 +30511,7 @@
         <v>240.5549466909089</v>
       </c>
       <c r="T41" t="n">
-        <v>240.5549466909089</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U41" t="n">
         <v>240.5549466909089</v>
@@ -30539,7 +30539,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.063707710285797</v>
       </c>
       <c r="R42" t="n">
         <v>134.3278900205298</v>
@@ -30590,16 +30590,16 @@
         <v>191.4735447740308</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9454809665883</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>210.1537290244207</v>
+        <v>125.4437604232714</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -30633,7 +30633,7 @@
         <v>168.6954829817093</v>
       </c>
       <c r="H43" t="n">
-        <v>240.5549466909089</v>
+        <v>165.7773474488177</v>
       </c>
       <c r="I43" t="n">
         <v>164.6938248359117</v>
@@ -30648,10 +30648,10 @@
         <v>31.3650482865705</v>
       </c>
       <c r="M43" t="n">
-        <v>24.38732889638561</v>
+        <v>128.877840597288</v>
       </c>
       <c r="N43" t="n">
-        <v>22.00958397276874</v>
+        <v>15.71034539069789</v>
       </c>
       <c r="O43" t="n">
         <v>36.73089156368807</v>
@@ -30684,7 +30684,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>240.5549466909089</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="44">
@@ -30721,16 +30721,16 @@
         <v>240.5549466909089</v>
       </c>
       <c r="K44" t="n">
-        <v>49.20719891181351</v>
+        <v>214.6311914915732</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>240.5549466909089</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>240.5549466909089</v>
@@ -30739,13 +30739,13 @@
         <v>240.5549466909089</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.5549466909089</v>
+        <v>88.43774142365241</v>
       </c>
       <c r="R44" t="n">
         <v>240.5549466909089</v>
       </c>
       <c r="S44" t="n">
-        <v>240.5549466909089</v>
+        <v>227.2481593784061</v>
       </c>
       <c r="T44" t="n">
         <v>240.5549466909089</v>
@@ -30773,19 +30773,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>128.5952389416043</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7382922638873</v>
@@ -30797,7 +30797,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J45" t="n">
-        <v>51.87880489469022</v>
+        <v>51.87880489469023</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,19 +30818,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.063707710285797</v>
       </c>
       <c r="R45" t="n">
-        <v>134.3278900205297</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4735447740308</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>214.9454809665883</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276542198663</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>240.5549466909089</v>
@@ -30839,7 +30839,7 @@
         <v>240.5549466909089</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>101.9718242307139</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30858,16 +30858,16 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>145.1826502507107</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="E46" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>240.5549466909089</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>171.5579302101496</v>
+        <v>168.6954829817093</v>
       </c>
       <c r="H46" t="n">
         <v>165.7773474488177</v>
@@ -30879,22 +30879,22 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K46" t="n">
-        <v>66.41515229588832</v>
+        <v>66.41515229588833</v>
       </c>
       <c r="L46" t="n">
-        <v>31.36504828657048</v>
+        <v>31.3650482865705</v>
       </c>
       <c r="M46" t="n">
-        <v>24.38732889638558</v>
+        <v>24.38732889638561</v>
       </c>
       <c r="N46" t="n">
-        <v>15.71034539069787</v>
+        <v>15.71034539069789</v>
       </c>
       <c r="O46" t="n">
-        <v>36.73089156368805</v>
+        <v>36.73089156368807</v>
       </c>
       <c r="P46" t="n">
-        <v>57.83856215319994</v>
+        <v>57.83856215319996</v>
       </c>
       <c r="Q46" t="n">
         <v>126.7738576957196</v>
@@ -30918,7 +30918,7 @@
         <v>240.5549466909089</v>
       </c>
       <c r="X46" t="n">
-        <v>221.9194554082425</v>
+        <v>231.0376706689468</v>
       </c>
       <c r="Y46" t="n">
         <v>217.1412728141684</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4185166165508694</v>
+        <v>0.4185166165508693</v>
       </c>
       <c r="H35" t="n">
-        <v>4.286133299251592</v>
+        <v>4.286133299251591</v>
       </c>
       <c r="I35" t="n">
         <v>16.13486185957741</v>
       </c>
       <c r="J35" t="n">
-        <v>35.52107468398438</v>
+        <v>35.52107468398437</v>
       </c>
       <c r="K35" t="n">
-        <v>53.23688306258269</v>
+        <v>53.23688306258268</v>
       </c>
       <c r="L35" t="n">
         <v>66.04506096635137</v>
       </c>
       <c r="M35" t="n">
-        <v>73.4878558459379</v>
+        <v>73.48785584593789</v>
       </c>
       <c r="N35" t="n">
-        <v>74.67696618271306</v>
+        <v>74.67696618271304</v>
       </c>
       <c r="O35" t="n">
-        <v>70.51534157688535</v>
+        <v>70.51534157688533</v>
       </c>
       <c r="P35" t="n">
-        <v>60.18321260578575</v>
+        <v>60.18321260578574</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.19508627555773</v>
+        <v>45.19508627555772</v>
       </c>
       <c r="R35" t="n">
         <v>26.28964441441357</v>
       </c>
       <c r="S35" t="n">
-        <v>9.536947399652945</v>
+        <v>9.536947399652943</v>
       </c>
       <c r="T35" t="n">
-        <v>1.832056488951432</v>
+        <v>1.832056488951431</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03348132932406955</v>
+        <v>0.03348132932406954</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,43 +33728,43 @@
         <v>0.2239261312045526</v>
       </c>
       <c r="H36" t="n">
-        <v>2.162655004001864</v>
+        <v>2.162655004001863</v>
       </c>
       <c r="I36" t="n">
-        <v>7.709737412086571</v>
+        <v>7.70973741208657</v>
       </c>
       <c r="J36" t="n">
         <v>21.15610873805819</v>
       </c>
       <c r="K36" t="n">
-        <v>36.15915952876322</v>
+        <v>36.15915952876321</v>
       </c>
       <c r="L36" t="n">
-        <v>48.62045230386569</v>
+        <v>48.62045230386568</v>
       </c>
       <c r="M36" t="n">
-        <v>56.73777456003071</v>
+        <v>56.7377745600307</v>
       </c>
       <c r="N36" t="n">
-        <v>58.23945462411739</v>
+        <v>58.23945462411738</v>
       </c>
       <c r="O36" t="n">
         <v>53.27772298005861</v>
       </c>
       <c r="P36" t="n">
-        <v>42.76006973852549</v>
+        <v>42.76006973852548</v>
       </c>
       <c r="Q36" t="n">
         <v>28.58397422183026</v>
       </c>
       <c r="R36" t="n">
-        <v>13.90306277777039</v>
+        <v>13.90306277777038</v>
       </c>
       <c r="S36" t="n">
-        <v>4.159329673909121</v>
+        <v>4.15932967390912</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9025794498990516</v>
+        <v>0.9025794498990515</v>
       </c>
       <c r="U36" t="n">
         <v>0.01473198231608899</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1877321462356258</v>
+        <v>0.1877321462356257</v>
       </c>
       <c r="H37" t="n">
         <v>1.669109445622201</v>
       </c>
       <c r="I37" t="n">
-        <v>5.645617634067729</v>
+        <v>5.645617634067728</v>
       </c>
       <c r="J37" t="n">
         <v>13.27266273885874</v>
@@ -33819,13 +33819,13 @@
         <v>21.81106208082997</v>
       </c>
       <c r="L37" t="n">
-        <v>27.91065017761295</v>
+        <v>27.91065017761294</v>
       </c>
       <c r="M37" t="n">
-        <v>29.42786725037177</v>
+        <v>29.42786725037176</v>
       </c>
       <c r="N37" t="n">
-        <v>28.72813834167537</v>
+        <v>28.72813834167536</v>
       </c>
       <c r="O37" t="n">
         <v>26.53508554246827</v>
@@ -33840,10 +33840,10 @@
         <v>8.441119957103679</v>
       </c>
       <c r="S37" t="n">
-        <v>3.271659312124495</v>
+        <v>3.271659312124494</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8021282611885825</v>
+        <v>0.8021282611885824</v>
       </c>
       <c r="U37" t="n">
         <v>0.01023993524921596</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4185166165508697</v>
+        <v>0.4185166165508694</v>
       </c>
       <c r="H44" t="n">
-        <v>4.286133299251595</v>
+        <v>4.286133299251592</v>
       </c>
       <c r="I44" t="n">
-        <v>16.13486185957742</v>
+        <v>16.13486185957741</v>
       </c>
       <c r="J44" t="n">
-        <v>35.52107468398441</v>
+        <v>35.52107468398438</v>
       </c>
       <c r="K44" t="n">
-        <v>53.23688306258273</v>
+        <v>53.23688306258269</v>
       </c>
       <c r="L44" t="n">
-        <v>66.04506096635143</v>
+        <v>66.04506096635137</v>
       </c>
       <c r="M44" t="n">
-        <v>73.48785584593796</v>
+        <v>73.4878558459379</v>
       </c>
       <c r="N44" t="n">
-        <v>74.67696618271312</v>
+        <v>74.67696618271306</v>
       </c>
       <c r="O44" t="n">
-        <v>70.5153415768854</v>
+        <v>70.51534157688535</v>
       </c>
       <c r="P44" t="n">
-        <v>60.1832126057858</v>
+        <v>60.18321260578575</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.19508627555776</v>
+        <v>45.19508627555773</v>
       </c>
       <c r="R44" t="n">
-        <v>26.28964441441359</v>
+        <v>26.28964441441357</v>
       </c>
       <c r="S44" t="n">
-        <v>9.536947399652954</v>
+        <v>9.536947399652945</v>
       </c>
       <c r="T44" t="n">
-        <v>1.832056488951433</v>
+        <v>1.832056488951432</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03348132932406957</v>
+        <v>0.03348132932406955</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2239261312045528</v>
+        <v>0.2239261312045526</v>
       </c>
       <c r="H45" t="n">
-        <v>2.162655004001865</v>
+        <v>2.162655004001864</v>
       </c>
       <c r="I45" t="n">
-        <v>7.709737412086577</v>
+        <v>7.709737412086571</v>
       </c>
       <c r="J45" t="n">
-        <v>21.15610873805821</v>
+        <v>21.15610873805819</v>
       </c>
       <c r="K45" t="n">
-        <v>36.15915952876325</v>
+        <v>36.15915952876322</v>
       </c>
       <c r="L45" t="n">
-        <v>48.62045230386573</v>
+        <v>48.62045230386569</v>
       </c>
       <c r="M45" t="n">
-        <v>56.73777456003075</v>
+        <v>56.73777456003071</v>
       </c>
       <c r="N45" t="n">
-        <v>58.23945462411744</v>
+        <v>58.23945462411739</v>
       </c>
       <c r="O45" t="n">
-        <v>53.27772298005866</v>
+        <v>53.27772298005861</v>
       </c>
       <c r="P45" t="n">
-        <v>42.76006973852552</v>
+        <v>42.76006973852549</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.58397422183029</v>
+        <v>28.58397422183026</v>
       </c>
       <c r="R45" t="n">
-        <v>13.9030627777704</v>
+        <v>13.90306277777039</v>
       </c>
       <c r="S45" t="n">
-        <v>4.159329673909125</v>
+        <v>4.159329673909121</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9025794498990523</v>
+        <v>0.9025794498990516</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01473198231608901</v>
+        <v>0.01473198231608899</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1877321462356259</v>
+        <v>0.1877321462356258</v>
       </c>
       <c r="H46" t="n">
-        <v>1.669109445622202</v>
+        <v>1.669109445622201</v>
       </c>
       <c r="I46" t="n">
-        <v>5.645617634067733</v>
+        <v>5.645617634067729</v>
       </c>
       <c r="J46" t="n">
-        <v>13.27266273885875</v>
+        <v>13.27266273885874</v>
       </c>
       <c r="K46" t="n">
-        <v>21.81106208082999</v>
+        <v>21.81106208082997</v>
       </c>
       <c r="L46" t="n">
-        <v>27.91065017761297</v>
+        <v>27.91065017761295</v>
       </c>
       <c r="M46" t="n">
-        <v>29.42786725037179</v>
+        <v>29.42786725037177</v>
       </c>
       <c r="N46" t="n">
-        <v>28.72813834167539</v>
+        <v>28.72813834167537</v>
       </c>
       <c r="O46" t="n">
-        <v>26.53508554246829</v>
+        <v>26.53508554246827</v>
       </c>
       <c r="P46" t="n">
-        <v>22.70534975926151</v>
+        <v>22.70534975926149</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.72000726342137</v>
+        <v>15.72000726342135</v>
       </c>
       <c r="R46" t="n">
-        <v>8.441119957103686</v>
+        <v>8.441119957103679</v>
       </c>
       <c r="S46" t="n">
-        <v>3.271659312124497</v>
+        <v>3.271659312124495</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8021282611885832</v>
+        <v>0.8021282611885825</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01023993524921597</v>
+        <v>0.01023993524921596</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.93990648501756</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="L11" t="n">
         <v>49.0545017316588</v>
@@ -35425,13 +35425,13 @@
         <v>36.55404110068652</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>45.26954801765654</v>
       </c>
       <c r="Q11" t="n">
-        <v>39.05416247350929</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>6.215385544146955</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.36607756419622</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>98.93990648501756</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="N12" t="n">
-        <v>68.8409966549244</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="O12" t="n">
-        <v>98.93990648501756</v>
+        <v>94.94233450582502</v>
       </c>
       <c r="P12" t="n">
-        <v>85.67516677172188</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,10 +35541,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.73893652031384</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>33.89867621330959</v>
+        <v>33.8986762133095</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -35556,22 +35556,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>31.66037420357251</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>34.57850973646417</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>56.45658833222912</v>
       </c>
       <c r="K13" t="n">
-        <v>98.93990648501756</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.016629266933703</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -35580,13 +35580,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>98.93990648501756</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.58199948956231</v>
+        <v>73.58199948956222</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>39.05416247350924</v>
+        <v>79.13436427631834</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>49.0545017316588</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="M14" t="n">
-        <v>83.75022101202066</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="N14" t="n">
         <v>78.19383561383786</v>
@@ -35665,10 +35665,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>98.93990648501756</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>6.215385544147011</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>39.36607756419622</v>
       </c>
       <c r="L15" t="n">
-        <v>98.93990648501756</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>98.93990648501756</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="N15" t="n">
-        <v>68.8409966549244</v>
+        <v>68.8409966549246</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="P15" t="n">
         <v>85.67516677172188</v>
@@ -35781,13 +35781,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>33.89867621330947</v>
       </c>
       <c r="D16" t="n">
-        <v>55.17320693457128</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>58.679715973057</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>80.49039014520204</v>
       </c>
       <c r="K16" t="n">
-        <v>42.74122557794588</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>16.84717513160855</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>98.93990648501756</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.58199948956236</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,13 +35878,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>89.29193017432451</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="L17" t="n">
         <v>49.0545017316588</v>
@@ -35899,7 +35899,7 @@
         <v>36.55404110068652</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>45.26954801765654</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35914,10 +35914,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>45.95043107226789</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>8.967093256081398</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>39.36607756419622</v>
       </c>
       <c r="L18" t="n">
-        <v>98.93990648501756</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="M18" t="n">
-        <v>94.94233450582496</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="N18" t="n">
-        <v>98.93990648501756</v>
+        <v>68.8409966549246</v>
       </c>
       <c r="O18" t="n">
-        <v>98.93990648501756</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>85.67516677172188</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>24.52347714647678</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>83.75022101202066</v>
       </c>
       <c r="N20" t="n">
-        <v>78.19383561383786</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="O20" t="n">
         <v>36.55404110068652</v>
@@ -36139,7 +36139,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36148,13 +36148,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>55.54508207524169</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>79.69727917135069</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>8.967093256081398</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>39.36607756419622</v>
       </c>
       <c r="L21" t="n">
-        <v>98.93990648501756</v>
+        <v>68.84099665492461</v>
       </c>
       <c r="M21" t="n">
-        <v>98.93990648501756</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="N21" t="n">
-        <v>94.94233450582496</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="O21" t="n">
-        <v>98.93990648501756</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>85.67516677172188</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>49.0545017316588</v>
       </c>
       <c r="M23" t="n">
-        <v>83.75022101202066</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="N23" t="n">
         <v>78.19383561383786</v>
@@ -36379,19 +36379,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.545082075241</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>79.69727917135069</v>
+        <v>30.07986254465965</v>
       </c>
       <c r="V23" t="n">
-        <v>8.967093256081398</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>39.36607756419622</v>
       </c>
       <c r="L24" t="n">
-        <v>98.93990648501739</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="M24" t="n">
-        <v>98.93990648501739</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="N24" t="n">
-        <v>68.84099665492406</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="P24" t="n">
-        <v>85.67516677172188</v>
+        <v>55.57625694162886</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0803921385435</v>
+        <v>137.0803921385444</v>
       </c>
       <c r="K26" t="n">
         <v>207.6342064794346</v>
@@ -36601,7 +36601,7 @@
         <v>261.9152160772722</v>
       </c>
       <c r="M26" t="n">
-        <v>296.6109353576342</v>
+        <v>296.6109353576341</v>
       </c>
       <c r="N26" t="n">
         <v>291.0545499594513</v>
@@ -36613,10 +36613,10 @@
         <v>199.4652350250911</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.4229729219611</v>
+        <v>124.422972921961</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72024270447849</v>
+        <v>18.72024270447847</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36744,22 +36744,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>47.08336689679577</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>8.331982240861352</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>146.4455620497251</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>181.4956660590429</v>
       </c>
       <c r="M28" t="n">
-        <v>90.46545314697472</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0803921385443</v>
+        <v>137.0803921385444</v>
       </c>
       <c r="K29" t="n">
         <v>207.6342064794346</v>
@@ -36838,22 +36838,22 @@
         <v>261.9152160772722</v>
       </c>
       <c r="M29" t="n">
-        <v>296.610935357634</v>
+        <v>296.6109353576342</v>
       </c>
       <c r="N29" t="n">
         <v>291.0545499594513</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4147554462999</v>
+        <v>249.4147554463</v>
       </c>
       <c r="P29" t="n">
         <v>199.4652350250911</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.422972921961</v>
+        <v>124.4229729219611</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72024270447844</v>
+        <v>18.72024270447849</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>39.76064624178426</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -36999,16 +36999,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>197.1503689549156</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>150.8241585468065</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.08685664989379</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37212,25 +37212,25 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>73.93383212716685</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>44.16523136390416</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>47.08336689679582</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>71.72858480883284</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>146.4455620497252</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>90.46545314697453</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>164.7746244838398</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>235.3284388247301</v>
       </c>
       <c r="L35" t="n">
         <v>289.6094484225677</v>
       </c>
       <c r="M35" t="n">
-        <v>324.3051677029296</v>
+        <v>83.75022101202065</v>
       </c>
       <c r="N35" t="n">
-        <v>318.7487823047467</v>
+        <v>78.19383561383785</v>
       </c>
       <c r="O35" t="n">
-        <v>67.13925282579962</v>
+        <v>277.1089877915954</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>213.8931313876341</v>
       </c>
       <c r="Q35" t="n">
         <v>152.1172052672565</v>
       </c>
       <c r="R35" t="n">
-        <v>46.4144750497739</v>
+        <v>46.41447504977393</v>
       </c>
       <c r="S35" t="n">
-        <v>13.30678731250282</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>18.14070877987226</v>
+        <v>18.14070877987229</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>32.63104799170289</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37452,13 +37452,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>71.85946370919957</v>
       </c>
       <c r="H37" t="n">
-        <v>28.62938984590532</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>75.86112185499719</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>164.7746244838398</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>235.32843882473</v>
+        <v>235.3284388247301</v>
       </c>
       <c r="L38" t="n">
         <v>49.0545017316588</v>
       </c>
       <c r="M38" t="n">
-        <v>83.75022101202066</v>
+        <v>324.3051677029296</v>
       </c>
       <c r="N38" t="n">
-        <v>127.401034525652</v>
+        <v>318.7487823047468</v>
       </c>
       <c r="O38" t="n">
         <v>277.1089877915954</v>
       </c>
       <c r="P38" t="n">
-        <v>227.1594673703865</v>
+        <v>19.75265974649895</v>
       </c>
       <c r="Q38" t="n">
         <v>152.1172052672565</v>
       </c>
       <c r="R38" t="n">
-        <v>46.4144750497739</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>13.30678731250282</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>18.14070877987226</v>
+        <v>18.14070877987229</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37683,10 +37683,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>98.87880547868389</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>5.61170622221863</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>104.4905117009025</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -37780,34 +37780,34 @@
         <v>164.7746244838398</v>
       </c>
       <c r="K41" t="n">
-        <v>235.32843882473</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>49.0545017316588</v>
       </c>
       <c r="M41" t="n">
-        <v>83.75022101202066</v>
+        <v>324.3051677029296</v>
       </c>
       <c r="N41" t="n">
-        <v>127.4010345256517</v>
+        <v>318.7487823047468</v>
       </c>
       <c r="O41" t="n">
-        <v>277.1089877915954</v>
+        <v>98.67544092619299</v>
       </c>
       <c r="P41" t="n">
-        <v>227.1594673703865</v>
+        <v>227.1594673703866</v>
       </c>
       <c r="Q41" t="n">
         <v>152.1172052672565</v>
       </c>
       <c r="R41" t="n">
-        <v>46.4144750497739</v>
+        <v>46.41447504977393</v>
       </c>
       <c r="S41" t="n">
-        <v>13.30678731250282</v>
+        <v>13.30678731250285</v>
       </c>
       <c r="T41" t="n">
-        <v>18.14070877987226</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>74.7775992420912</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37944,10 +37944,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>104.4905117009024</v>
       </c>
       <c r="N43" t="n">
-        <v>6.299238582070858</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -37980,7 +37980,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>23.41367387674046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -38017,16 +38017,16 @@
         <v>164.7746244838398</v>
       </c>
       <c r="K44" t="n">
-        <v>43.98069104563472</v>
+        <v>209.4046836253944</v>
       </c>
       <c r="L44" t="n">
-        <v>289.6094484225678</v>
+        <v>49.0545017316588</v>
       </c>
       <c r="M44" t="n">
-        <v>83.75022101202072</v>
+        <v>83.75022101202066</v>
       </c>
       <c r="N44" t="n">
-        <v>78.19383561383792</v>
+        <v>318.7487823047468</v>
       </c>
       <c r="O44" t="n">
         <v>277.1089877915954</v>
@@ -38035,16 +38035,16 @@
         <v>227.1594673703866</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.1172052672565</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.41447504977392</v>
+        <v>46.41447504977393</v>
       </c>
       <c r="S44" t="n">
-        <v>13.30678731250283</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.14070877987227</v>
+        <v>18.14070877987229</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.36607756419625</v>
+        <v>39.36607756419622</v>
       </c>
       <c r="L45" t="n">
-        <v>119.8886527290608</v>
+        <v>119.8886527290607</v>
       </c>
       <c r="M45" t="n">
         <v>185.1111344851683</v>
@@ -38111,7 +38111,7 @@
         <v>134.5330876491572</v>
       </c>
       <c r="P45" t="n">
-        <v>85.6751667717219</v>
+        <v>85.67516677172188</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38154,16 +38154,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>95.3722964401982</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>101.6280644724622</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.862447228440285</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -38214,7 +38214,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>9.118215260704254</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
